--- a/data/hotels_by_city/Houston/Houston_shard_573.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_573.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1440365-Reviews-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Sleep-Inn-Suites-Houston-I-45-North.h3851799.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1578 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r598679576-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1440365</t>
+  </si>
+  <si>
+    <t>598679576</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>We visited family in the neighborhood and stayed here. The staff was friendly and helpful, our room was super clean and it was really quiet. We will be returning for another visit. Very convenient to downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We visited family in the neighborhood and stayed here. The staff was friendly and helpful, our room was super clean and it was really quiet. We will be returning for another visit. Very convenient to downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r595427050-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595427050</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Very happy with this establishment.  Clean rooms, quiet, comfortable beds, great complimentary breakfast, laundry facility, friendly staff and reasonable price.  Will definitely stay here again.  Only regret is that it doesn't have a pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Webmaster at Sleep Inn &amp; Suites, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Very happy with this establishment.  Clean rooms, quiet, comfortable beds, great complimentary breakfast, laundry facility, friendly staff and reasonable price.  Will definitely stay here again.  Only regret is that it doesn't have a pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r591116810-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591116810</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>Was in town for a couple of Astros games. Only about 10 minutes to the stadium. Room was clean and everything was in working order. Only had breakfast one of the 2 mornings. Eggs were just okay. Only had whole milk available at the time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Was in town for a couple of Astros games. Only about 10 minutes to the stadium. Room was clean and everything was in working order. Only had breakfast one of the 2 mornings. Eggs were just okay. Only had whole milk available at the time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r589351928-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589351928</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>This was a great hotel. Great staff and very clean. My wife and daughter loved it. Just a great experience. 200 characters is just a number. It does nit make that big of a difference in rating a hotel. Stop this policyMoreShow less</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>This was a great hotel. Great staff and very clean. My wife and daughter loved it. Just a great experience. 200 characters is just a number. It does nit make that big of a difference in rating a hotel. Stop this policyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r589228352-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589228352</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This hotel was a last minute choice due to being stranded because of flight issues. It surpassed expectations. - close to airport - shuttle service was a bit late given the chaos of many flights being cancelled but overall, service was very convenient - great service from front desk staff- prompt, helpful - spacious, clean rooms- quiet, safe area - loved the bed- very comfy- nice bathroom, great shower - above average breakfast for hotels in similar price range Overall, was pleasantly surprised with the hotel and room given last minute options.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This hotel was a last minute choice due to being stranded because of flight issues. It surpassed expectations. - close to airport - shuttle service was a bit late given the chaos of many flights being cancelled but overall, service was very convenient - great service from front desk staff- prompt, helpful - spacious, clean rooms- quiet, safe area - loved the bed- very comfy- nice bathroom, great shower - above average breakfast for hotels in similar price range Overall, was pleasantly surprised with the hotel and room given last minute options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r587018143-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587018143</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Football camp</t>
+  </si>
+  <si>
+    <t>Clean and freindly, location on I45 allows for easy travel throughout the downtown area. Free breakfast wasnt bad either!! Had a fridge and coffee maker in room which was nice, but no pool or bar but for clean quiet place to sleep it was great!MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean and freindly, location on I45 allows for easy travel throughout the downtown area. Free breakfast wasnt bad either!! Had a fridge and coffee maker in room which was nice, but no pool or bar but for clean quiet place to sleep it was great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r577112964-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577112964</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Gem hotel value on North Houston freeway</t>
+  </si>
+  <si>
+    <t>I chose this hotel because my son lives near the Heights in Houston and it was located at an easy-in/easy-out location (which is not always so easy in Houston). The staff was very friendly, helpful and efficient. The hotel was squeeky clean and brightly lit. The gated parking area was safe. The room was spotless and well kept by the cleaning crew. Amenities included workout room and breakfast. Everything seemed to be newly updated and sparkling overall. I would definitely recommend Sleep Inn. I'd recommend it to my mother it was that good!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
+  </si>
+  <si>
+    <t>I chose this hotel because my son lives near the Heights in Houston and it was located at an easy-in/easy-out location (which is not always so easy in Houston). The staff was very friendly, helpful and efficient. The hotel was squeeky clean and brightly lit. The gated parking area was safe. The room was spotless and well kept by the cleaning crew. Amenities included workout room and breakfast. Everything seemed to be newly updated and sparkling overall. I would definitely recommend Sleep Inn. I'd recommend it to my mother it was that good!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r563248173-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563248173</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>Great staff, friendly and knew that patrons value privacy. Very accommodating to our needs and delivered and excellent service dedicated to our values. Added extra towels as asked and had all of our accessories ready the very next morning before we were ready to use them.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Great staff, friendly and knew that patrons value privacy. Very accommodating to our needs and delivered and excellent service dedicated to our values. Added extra towels as asked and had all of our accessories ready the very next morning before we were ready to use them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r563041584-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563041584</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiet and Restful </t>
+  </si>
+  <si>
+    <t>The hotel and the staff were excellent.  The staff were very friendly and helpful.  The parking area was secure but small,  and it was difficult at times to back straight up from the parking lot.  The area itself appeared run down,  but the hotel itself appears new. The breakfast,  while warm, was very similar each day. Dining area was small. Room was extremely comfortable and quiet. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>The hotel and the staff were excellent.  The staff were very friendly and helpful.  The parking area was secure but small,  and it was difficult at times to back straight up from the parking lot.  The area itself appeared run down,  but the hotel itself appears new. The breakfast,  while warm, was very similar each day. Dining area was small. Room was extremely comfortable and quiet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r554042935-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554042935</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Disappointing breakfast</t>
+  </si>
+  <si>
+    <t>The room was clean and average. We were very disappointed by the hot breakfast. The first morning breakfast said it was served until 10:00am, however, all of the hot food was gone when we arrived at 9:30 and we had to specially ask the attendant to mix up some more waffle mix. She reluctantly did so. They were out of almost all of the other breakfast items. The second morning we were there by 8:30 (breakfast was until 9:30) and nearly all of the food was gone again! I asked for some more sausage links and the attendant said that they were frozen and could not be made. The egg and cheese omelette and the tater tots were cold. There was no fruit or yogurt and only a few slices of bread to make toast. The coffee dispenser worked, but the juice machine said “temporarily out of service.”  I was also getting grossed out because the attendant had a nasty cough and I could hear her coughing all over the place in the back. We told the front desk and they apologized, but that didn’t help the situation. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The room was clean and average. We were very disappointed by the hot breakfast. The first morning breakfast said it was served until 10:00am, however, all of the hot food was gone when we arrived at 9:30 and we had to specially ask the attendant to mix up some more waffle mix. She reluctantly did so. They were out of almost all of the other breakfast items. The second morning we were there by 8:30 (breakfast was until 9:30) and nearly all of the food was gone again! I asked for some more sausage links and the attendant said that they were frozen and could not be made. The egg and cheese omelette and the tater tots were cold. There was no fruit or yogurt and only a few slices of bread to make toast. The coffee dispenser worked, but the juice machine said “temporarily out of service.”  I was also getting grossed out because the attendant had a nasty cough and I could hear her coughing all over the place in the back. We told the front desk and they apologized, but that didn’t help the situation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r541877042-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541877042</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Astros Visit</t>
+  </si>
+  <si>
+    <t>Had a great visit. The hotel was very comfortable with nice immenities. The gym area was small with no towels or paper towels. The hotel was reasonably close to downtown which provided easy access to our block party. We would most definitely stay here again!!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r540926282-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540926282</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Nice and Reasonably Priced</t>
+  </si>
+  <si>
+    <t>The room was very clean and roomy. The breakfast could have been better -- there were not enough tables for those who had come for breakfast. The first day some of the food was cold, there was only one type of yogurt offered and only one type of breakfast meat, sausage. On the second day there were two types of meat, sausage and bacon.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r538105295-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538105295</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Pretty darn good hotel in an interesting neighborhood</t>
+  </si>
+  <si>
+    <t>Yes this is close to downtown. Yes it is very clean and friendly. However the location is a bit odd. It's a ways from the downtown area to be called a downtown hotel. It's located in a neighborhood off the freeway and there are little to no food amenities nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r537651441-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537651441</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Clean and economical</t>
+  </si>
+  <si>
+    <t>We stayed this past weekend for a concert at White Oak Music Hall.  Only 5 minutes away so super convenient.  Close to downtown and other attractions as well.  The room was clean, the staff was nice and the price was right.  It seems to be recently renovated and still smelled "new".  We would stay here again if we're in the area.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r537273290-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537273290</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Staff Treated Me Well</t>
+  </si>
+  <si>
+    <t>2nd time to stay here for an annual convention.  Minutes from downtown without downtown prices.  Room was clean and comfortable and up to Choice Hotel standards.  Breakfast was so-so...I've had better and options weren't as plentiful.Had to check out early due to a family death, and they refunded my unused night.  Did not expect that, especially since I had pre-paid.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r535750120-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535750120</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>good choice just beyond downtown</t>
+  </si>
+  <si>
+    <t>If you've got business in downtown Houston but want a clean place to stay for under $100/night, this is a good choice. Stayed there twice, once in October 2017 and first time in September 2016, and found it to be a convenient drive under 15 minutes to George R. Brown Convention Center. It's not real fancy, but it feels safe (certainly compared to the places across I-45 from it), and the staff couldn't possibly be nicer. Good TVs with lots of choices. Breakfast above average for such properties.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r534588539-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534588539</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Convenient to downtown Houston</t>
+  </si>
+  <si>
+    <t>Nice clean and comfortable room.  Would definitely stay at this property again.  Room was set up as a two room suite with two couches, chair and ottoman.  Had Direct TV in the room so channel selection was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r531856211-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531856211</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Clean Rooms and Hotel, Nice front desk staff.</t>
+  </si>
+  <si>
+    <t>The people at the front counter were helpful and always had a smile on their face. My room was pleasant and updated! While right off 45 south it was very convenient to downtown Houston. There is noise from the road—it lulled me to sleep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r505782697-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505782697</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Very clean comfortable hotel</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights. The hotel is very clean throughout. Our room was of good size, clean room and very comfortable beds. The shower was very nice. Breakfast was very good with cereals, hot egg, sausage, hash potato, Toast, waffles, fruit, cakes, yoghurts and drinks. Small gym but good enough. Need to drive to restaurants as nothing nearby; staff gave us lots of advice on where to eat; the room book also suggests dining, attractions etc which was useful to us.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights. The hotel is very clean throughout. Our room was of good size, clean room and very comfortable beds. The shower was very nice. Breakfast was very good with cereals, hot egg, sausage, hash potato, Toast, waffles, fruit, cakes, yoghurts and drinks. Small gym but good enough. Need to drive to restaurants as nothing nearby; staff gave us lots of advice on where to eat; the room book also suggests dining, attractions etc which was useful to us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r504616871-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504616871</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>New building</t>
+  </si>
+  <si>
+    <t>Hotel was nice with new construction.  Staff were nice and helpful.  Breakfast was limited.  Parking lot was small as well. Very close to Toyota Center.  Overall, we had a good visit.  I did notice a few roaches in the parking lot, but none inside of the building.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was nice with new construction.  Staff were nice and helpful.  Breakfast was limited.  Parking lot was small as well. Very close to Toyota Center.  Overall, we had a good visit.  I did notice a few roaches in the parking lot, but none inside of the building.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r492407433-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492407433</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Great location and very comfortable.</t>
+  </si>
+  <si>
+    <t>Very comfortable ,good location . About $8 in Uber into Main st Houston . About 45 minutes drive to Space Centre and Twenty minutes to airport.Good breakfast ,great reception.Not a lot in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Very comfortable ,good location . About $8 in Uber into Main st Houston . About 45 minutes drive to Space Centre and Twenty minutes to airport.Good breakfast ,great reception.Not a lot in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r488918585-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488918585</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>very clean and very nice</t>
+  </si>
+  <si>
+    <t>My fiance' and I got there before check in time and the front desk guy said there wasn't any rooms at the moment but he still went and checked on housekeeping and had one of them clean our room right there and there. Our housekeeper did an amazing job even being rushed or told to hurry. We were very thankful for the fast service and everyone was super nice. Thank you everyone at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>My fiance' and I got there before check in time and the front desk guy said there wasn't any rooms at the moment but he still went and checked on housekeeping and had one of them clean our room right there and there. Our housekeeper did an amazing job even being rushed or told to hurry. We were very thankful for the fast service and everyone was super nice. Thank you everyone at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r486632359-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486632359</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Clean, spacious, and well worth the money. Great location too.</t>
+  </si>
+  <si>
+    <t>Easy access, free parking, free WiFi, with large and well appointed rooms. The only improvement I can suggest is a larger coffee pot.  I had business downtown and the easy access to all sites there made life much easier.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Easy access, free parking, free WiFi, with large and well appointed rooms. The only improvement I can suggest is a larger coffee pot.  I had business downtown and the easy access to all sites there made life much easier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r483051036-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483051036</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>1 night stay in May2017</t>
+  </si>
+  <si>
+    <t>Stayed overnight. The room was quite big enough. It was clean and well furnished.My bed was a little uncomfortable.The water in the shower was only luke warm.The breakfast was decent. But there were not many choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Stayed overnight. The room was quite big enough. It was clean and well furnished.My bed was a little uncomfortable.The water in the shower was only luke warm.The breakfast was decent. But there were not many choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r477952141-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477952141</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Good Room a few problems</t>
+  </si>
+  <si>
+    <t>The facility looked new and was in excellent condition. We stayed a total of 4 nights. We chose the hotel because of the location. A couple of complaints, Saturday morning the breakfast was good but on Sunday the hot food was not hot. The warmer was plugged in but the GFCI was tripped, No one was around so I reset it. Glad there was a microwave available. Monday the waffle maker wasn't plugged in so no waffle. I guessed it was only a weekend thing because you had to ask for the waffle batter from an attendant, Monday night our sleep was interrupted by a fire alarm that went off momentarily. The 3rd floor, where we were staying, was full of smoke. We went downstairs where we found the night clerk and what looked like a homeless man. He had set off a fire extinguisher in the 3rd floor hallway. The smoke was just extinguisher output. No fire, so back to bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>The facility looked new and was in excellent condition. We stayed a total of 4 nights. We chose the hotel because of the location. A couple of complaints, Saturday morning the breakfast was good but on Sunday the hot food was not hot. The warmer was plugged in but the GFCI was tripped, No one was around so I reset it. Glad there was a microwave available. Monday the waffle maker wasn't plugged in so no waffle. I guessed it was only a weekend thing because you had to ask for the waffle batter from an attendant, Monday night our sleep was interrupted by a fire alarm that went off momentarily. The 3rd floor, where we were staying, was full of smoke. We went downstairs where we found the night clerk and what looked like a homeless man. He had set off a fire extinguisher in the 3rd floor hallway. The smoke was just extinguisher output. No fire, so back to bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r473673432-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473673432</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, great price.</t>
+  </si>
+  <si>
+    <t>This is a very good hotel. The room was nice and very well taken care of. The hotel is situated in a great spot. It is close to many of the things that people will want to see and do. I would recommend this hotel to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>This is a very good hotel. The room was nice and very well taken care of. The hotel is situated in a great spot. It is close to many of the things that people will want to see and do. I would recommend this hotel to family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r473495763-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473495763</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Good rooms</t>
+  </si>
+  <si>
+    <t>The rooms are OK.  They are comfortable and clean with TV, air conditioner and a very decent bathroom.They have a very small gym but the static bike is not working properly.  They don't have towels in the gym.Breakfast is very basic.  Enough to survive.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are OK.  They are comfortable and clean with TV, air conditioner and a very decent bathroom.They have a very small gym but the static bike is not working properly.  They don't have towels in the gym.Breakfast is very basic.  Enough to survive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r458469739-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458469739</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>nice place close to downtown</t>
+  </si>
+  <si>
+    <t>Newly remodeled.  We were here for the Super Bowl.  The suite is very large and had 1 King and 2 fold out couches.  Clean and nice.  Easy parking.All the downtown hotels were booked up, but this hotel was probably better with the huge room and easy parking.NiceMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Newly remodeled.  We were here for the Super Bowl.  The suite is very large and had 1 King and 2 fold out couches.  Clean and nice.  Easy parking.All the downtown hotels were booked up, but this hotel was probably better with the huge room and easy parking.NiceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r451055773-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451055773</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Two day visit to Houston</t>
+  </si>
+  <si>
+    <t>Positively surprised with the quality of the hotel. Large room, helpful staff, good breakfast, convenient location. Very clean with modern furniture. Wi Fi had more power than other hotels in the same range.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Positively surprised with the quality of the hotel. Large room, helpful staff, good breakfast, convenient location. Very clean with modern furniture. Wi Fi had more power than other hotels in the same range.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r448593035-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448593035</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Visiting family who live a short walk from hotel</t>
+  </si>
+  <si>
+    <t>Location is excellent.  Just off freeway, but highway noise wasn't a problem.  Hotel backs up to a quaint residential neighborhood that is very quiet.Our suite was large and comfortable, but would have benefited from some overhead lighting or at least an additional floor or table lamp.  Pillow selection could be improved.  They were all foam-filled and too fat for my comfort. Staff were very pleasant and accommodating.  Complimentary breakfast included both hot and cold foods, but not much variety.  No restaurants in easy walking distance.  Overall, very good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Location is excellent.  Just off freeway, but highway noise wasn't a problem.  Hotel backs up to a quaint residential neighborhood that is very quiet.Our suite was large and comfortable, but would have benefited from some overhead lighting or at least an additional floor or table lamp.  Pillow selection could be improved.  They were all foam-filled and too fat for my comfort. Staff were very pleasant and accommodating.  Complimentary breakfast included both hot and cold foods, but not much variety.  No restaurants in easy walking distance.  Overall, very good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r441153447-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441153447</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Quaint and Neat !!!</t>
+  </si>
+  <si>
+    <t>The location was just off the main highway, easy to get to and not crowded, small enough to enjoy, peaceful and comfortable. A great place to get a good nights sleep. Minutes from downtown entertainment.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r435491628-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435491628</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>Three very good friends came for the quilt show.  Two shared the king bed (very comfy) but I had the pull-out which was disastrous - ended up just sleeping on the couch for the next 3 nights.  Suggest putting a foamy in the cupboard so that people with old bones don't have to feel every spring in the mattress.  The staff were very helpful and the breakfasts provided were more than adequate.  Would definitely stay again if in the area.   Our room was quiet, very clean, loads of hot water for showers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r429881477-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429881477</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Great staff, not ideal location</t>
+  </si>
+  <si>
+    <t>Sleep Inn staff was extremely accommodating. Room was clean and spacious. Wifi was strong. Breakfast was simple, but good. As a single traveler, I was uncomfortable with the neighborhood and location of the hotel. The staff, again, was accommodating and refunded my money to leave for the remainder of my Houston stay. If you are traveling as a group on a low budget, this is a great option. If you are traveling alone, I wouldn't recommend this location.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r417913213-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417913213</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Delightful Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We loved our one night stay at the Sleep Inn. Although it is next to the highway its location is a convenient short drive to Downtown. Berta at the front desk made our check in a delight and the hotel should be proud of her friendliness and customer service. The rooms were clean, comfortable and spacious and the breakfast looked substantial. We left too early to have a hot breakfast but we were let in to take coffee and muffins before our early flight. Thanks! </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r414063083-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414063083</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Very pleasant surprise right in the Heights</t>
+  </si>
+  <si>
+    <t>This Sleep In is spotless and very fresh, even though it has been open for more than 5 years.  Every part of the hotel is clean.  The rooms are very large and comfortable.  I will definitely stay again and again.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r403579610-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403579610</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay. When we walked in the lobby it had a very pleasant aroma. The staff was very friendly. The breakfast could have been a little better (just my opinion). But of course there is a jack n the box right across the street. Overall a great experience. The pillows were a little small. The rooms were clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r398157992-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398157992</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Baseball game</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. The staff was very friendly, the room was comfortable and clean.  The breakfast was more than we expected. It was not in the best neighborhood but was convenient to the highway and Minute Maid stadium.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r395319781-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395319781</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>A nice roadside hotel</t>
+  </si>
+  <si>
+    <t>We slept three nights here during our roadtrip. Free parking lot was good, room spacious and clean, fridge big and the hotel has even laundry and drying machines for guests to use for a cheap prize ($1.5 for wash/drying and a bit less for a small bag of laundry powder). There wasn't any safety box in the room/lobby although that was promised on the website. The staff wasn't really sorry about that. Otherwise they were quite nice. The breakfast was pretty good, bagels, toast, yogurt, cereal, bananas, coffee/tea/juice and even tortillas and waffles on demand. The hotel was really for people with car, we couldn't find even a small grocery store in a walking distance (well, there was one on the other side of the highway, there was even a walking lane which we crazy Finns tried to use but the store was closed and so we had to drive our car to Wallmart to get something to put into our fridge).MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>We slept three nights here during our roadtrip. Free parking lot was good, room spacious and clean, fridge big and the hotel has even laundry and drying machines for guests to use for a cheap prize ($1.5 for wash/drying and a bit less for a small bag of laundry powder). There wasn't any safety box in the room/lobby although that was promised on the website. The staff wasn't really sorry about that. Otherwise they were quite nice. The breakfast was pretty good, bagels, toast, yogurt, cereal, bananas, coffee/tea/juice and even tortillas and waffles on demand. The hotel was really for people with car, we couldn't find even a small grocery store in a walking distance (well, there was one on the other side of the highway, there was even a walking lane which we crazy Finns tried to use but the store was closed and so we had to drive our car to Wallmart to get something to put into our fridge).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r393383660-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393383660</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Hot in July</t>
+  </si>
+  <si>
+    <t>So glad there is a mid priced hotel close to downtown.  We carry a few work items in our truck, we stay here because it is gated and security in the evening.  Great staff, rooms and breakfast!!  Parking lot is tight, but manageable.MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>So glad there is a mid priced hotel close to downtown.  We carry a few work items in our truck, we stay here because it is gated and security in the evening.  Great staff, rooms and breakfast!!  Parking lot is tight, but manageable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r387635503-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387635503</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Business in Houston</t>
+  </si>
+  <si>
+    <t>The area is in the process of revitalization.  A security guard is on hand in the evenings.  I felt safe inside but not sure about the parking lot or the blocks around it.  Not many restaurants nearby other than a few fast food.  The room was comfortable and well maintained.  A free continental breakfast in the morning that was kept well stocked.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Public Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>The area is in the process of revitalization.  A security guard is on hand in the evenings.  I felt safe inside but not sure about the parking lot or the blocks around it.  Not many restaurants nearby other than a few fast food.  The room was comfortable and well maintained.  A free continental breakfast in the morning that was kept well stocked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r387604418-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387604418</t>
+  </si>
+  <si>
+    <t>Love this Hotel</t>
+  </si>
+  <si>
+    <t>Great Hotel the price was fair excellent service.  I have stayed here 2 times and will continue to do so when needed.  The beds are comfortable, granite countertops. Very clean and the Hot Breakfast is a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Hotel the price was fair excellent service.  I have stayed here 2 times and will continue to do so when needed.  The beds are comfortable, granite countertops. Very clean and the Hot Breakfast is a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r387477284-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387477284</t>
+  </si>
+  <si>
+    <t>GREAT LOCATION</t>
+  </si>
+  <si>
+    <t>Clean room; safe neighborhood; hot breakfast; attentive staff; driving to/from Brown Convention Center was easy; we drove streets behind and found them safe. Both my wife and I plan to return to this place in the future. Good pricing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean room; safe neighborhood; hot breakfast; attentive staff; driving to/from Brown Convention Center was easy; we drove streets behind and found them safe. Both my wife and I plan to return to this place in the future. Good pricing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r367022620-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367022620</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>We were one of three couples in town for a baseball game. Small property.  Our suites were among the best hotel rooms I've ever stayed in.  Huge, nicely appointed, refrigerator, microwave and coffee maker. Away from the elevator as asked.  Free breakfast daily. Small but reasonable fitness center. Some confusion as to which days their happy hours were held; we never hit the right day.  Disappointed that the online pictures showed a pool, but there was none. The property was 6 miles north of downtown Houston and since we did not have a car, we needed to take a taxi or Uber each time we wanted to travel.   Other than that, I would highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>We were one of three couples in town for a baseball game. Small property.  Our suites were among the best hotel rooms I've ever stayed in.  Huge, nicely appointed, refrigerator, microwave and coffee maker. Away from the elevator as asked.  Free breakfast daily. Small but reasonable fitness center. Some confusion as to which days their happy hours were held; we never hit the right day.  Disappointed that the online pictures showed a pool, but there was none. The property was 6 miles north of downtown Houston and since we did not have a car, we needed to take a taxi or Uber each time we wanted to travel.   Other than that, I would highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r363066846-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363066846</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Excellent Room &amp; Service, poor location</t>
+  </si>
+  <si>
+    <t>We stayed here (3 adults) on 2 separate occasions in Feb/Mar 2016.  The room was very clean and comfortable, the staff were excellent (especially Berta on Reception and Sheila the breakfast hostess).The room cost included free WiFi, breakfast (which was really good) and parking.  For us this was a relatively budget value hotel and having paid 2/3 times as much for hotels in Atlanta and New Orleans this really was the best of the 3.The only downside being the location.  Being English we tend to want to walk to places, but the staff strongly advised against doing so, as did a local policeman, due to the risk of crime.  Especially after dark.  So if you have a car and are happy to drive (a good restaurant is Skinny Rita's only 5 mins by car) this is an excellent place to stay from which to explore the City.  Being next to the I-45 we had no problems travelling to the Space Center, Galveston or going Shopping.  We did walk to the nearest Metro rail station to go to Downtown but on reflection would probably suggest for safety to take a taxi from hotel to Downtown area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Public Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here (3 adults) on 2 separate occasions in Feb/Mar 2016.  The room was very clean and comfortable, the staff were excellent (especially Berta on Reception and Sheila the breakfast hostess).The room cost included free WiFi, breakfast (which was really good) and parking.  For us this was a relatively budget value hotel and having paid 2/3 times as much for hotels in Atlanta and New Orleans this really was the best of the 3.The only downside being the location.  Being English we tend to want to walk to places, but the staff strongly advised against doing so, as did a local policeman, due to the risk of crime.  Especially after dark.  So if you have a car and are happy to drive (a good restaurant is Skinny Rita's only 5 mins by car) this is an excellent place to stay from which to explore the City.  Being next to the I-45 we had no problems travelling to the Space Center, Galveston or going Shopping.  We did walk to the nearest Metro rail station to go to Downtown but on reflection would probably suggest for safety to take a taxi from hotel to Downtown area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r352977308-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352977308</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Sleep Inn - north Houston</t>
+  </si>
+  <si>
+    <t>The biggest problem was with our reservation, which was the fault of the Choice Hotels reservations person I talked to. The Choice Hotels website was down when I went to make this reservation, so I called their 800 number instead. I had requested a non-smoking, handicapped room on the first floor. I asked twice to confirm that the room was a handicapped room. But when I arrived, there was nothing in the reservation about being on the first floor or about having a handicapped room. Although the front desk person who checked us in was able to get us a first floor room, it was not a handicapped room. We had to make do with that room for two of our five nights here. Thursday, the morning desk clerk was supposed to leave a message for the evening desk clerk to try to move us into a handicapped room, but, when I asked the night desk clerk, the morning one didn't leave any note. Friday night, the night desk clerk was finally able to move us into a handicapped room and helped us move our stuff from the one room to the other. Kudos to her! Other things. The parking lot is very small. Rooms were mostly clean and beds were comfortable. However, the first room we were in had two beds and, when we pulled back the covers on one bed, the sheet had a brown stain from someone's...The biggest problem was with our reservation, which was the fault of the Choice Hotels reservations person I talked to. The Choice Hotels website was down when I went to make this reservation, so I called their 800 number instead. I had requested a non-smoking, handicapped room on the first floor. I asked twice to confirm that the room was a handicapped room. But when I arrived, there was nothing in the reservation about being on the first floor or about having a handicapped room. Although the front desk person who checked us in was able to get us a first floor room, it was not a handicapped room. We had to make do with that room for two of our five nights here. Thursday, the morning desk clerk was supposed to leave a message for the evening desk clerk to try to move us into a handicapped room, but, when I asked the night desk clerk, the morning one didn't leave any note. Friday night, the night desk clerk was finally able to move us into a handicapped room and helped us move our stuff from the one room to the other. Kudos to her! Other things. The parking lot is very small. Rooms were mostly clean and beds were comfortable. However, the first room we were in had two beds and, when we pulled back the covers on one bed, the sheet had a brown stain from someone's rear end. This sheet should have been changed. The internet worked fine. They had an excellent breakfast. Overall, not too bad, but make sure your reservation is correct first.MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Public Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2016</t>
+  </si>
+  <si>
+    <t>The biggest problem was with our reservation, which was the fault of the Choice Hotels reservations person I talked to. The Choice Hotels website was down when I went to make this reservation, so I called their 800 number instead. I had requested a non-smoking, handicapped room on the first floor. I asked twice to confirm that the room was a handicapped room. But when I arrived, there was nothing in the reservation about being on the first floor or about having a handicapped room. Although the front desk person who checked us in was able to get us a first floor room, it was not a handicapped room. We had to make do with that room for two of our five nights here. Thursday, the morning desk clerk was supposed to leave a message for the evening desk clerk to try to move us into a handicapped room, but, when I asked the night desk clerk, the morning one didn't leave any note. Friday night, the night desk clerk was finally able to move us into a handicapped room and helped us move our stuff from the one room to the other. Kudos to her! Other things. The parking lot is very small. Rooms were mostly clean and beds were comfortable. However, the first room we were in had two beds and, when we pulled back the covers on one bed, the sheet had a brown stain from someone's...The biggest problem was with our reservation, which was the fault of the Choice Hotels reservations person I talked to. The Choice Hotels website was down when I went to make this reservation, so I called their 800 number instead. I had requested a non-smoking, handicapped room on the first floor. I asked twice to confirm that the room was a handicapped room. But when I arrived, there was nothing in the reservation about being on the first floor or about having a handicapped room. Although the front desk person who checked us in was able to get us a first floor room, it was not a handicapped room. We had to make do with that room for two of our five nights here. Thursday, the morning desk clerk was supposed to leave a message for the evening desk clerk to try to move us into a handicapped room, but, when I asked the night desk clerk, the morning one didn't leave any note. Friday night, the night desk clerk was finally able to move us into a handicapped room and helped us move our stuff from the one room to the other. Kudos to her! Other things. The parking lot is very small. Rooms were mostly clean and beds were comfortable. However, the first room we were in had two beds and, when we pulled back the covers on one bed, the sheet had a brown stain from someone's rear end. This sheet should have been changed. The internet worked fine. They had an excellent breakfast. Overall, not too bad, but make sure your reservation is correct first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r340753518-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340753518</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lay over </t>
+  </si>
+  <si>
+    <t>Had to stay one night before international flight home close to airport the receptionist during the day very friendly but not the male staff reception at night so rude. Nice simple accommodation beds comfortable and good breakfast provided in the morning MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Had to stay one night before international flight home close to airport the receptionist during the day very friendly but not the male staff reception at night so rude. Nice simple accommodation beds comfortable and good breakfast provided in the morning More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r334672105-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334672105</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Wedding 2015</t>
+  </si>
+  <si>
+    <t>2 out of 5 hotel. Good location and nice service.Cons is that it has a weird smell in all hotel &amp;really small rooms. We also stayed in a la copa inn which is mucho better hotel but their was no copa hotel near by so we chose thisone.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Director of Sales at Sleep Inn &amp; Suites, responded to this reviewResponded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2015</t>
+  </si>
+  <si>
+    <t>2 out of 5 hotel. Good location and nice service.Cons is that it has a weird smell in all hotel &amp;really small rooms. We also stayed in a la copa inn which is mucho better hotel but their was no copa hotel near by so we chose thisone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r334509470-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334509470</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay near Downtown!</t>
+  </si>
+  <si>
+    <t>My daughter and I were on a business trip to Houston and needed to stay near downtown.  I usually stay at Choice hotels and this one did not disappoint.  Staff was friendly and accommodating.  Free Breakfast as usual along with a  newspaper.  Very close to downtown.  Highly recommend this Sleep Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>My daughter and I were on a business trip to Houston and needed to stay near downtown.  I usually stay at Choice hotels and this one did not disappoint.  Staff was friendly and accommodating.  Free Breakfast as usual along with a  newspaper.  Very close to downtown.  Highly recommend this Sleep Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r313333736-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313333736</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel</t>
+  </si>
+  <si>
+    <t>We enjoyed staying here! Rooms spacious, clean and very comfy! Would have rates it higher, but the dogs outside at the dig sitting place were a littlw noisy in the morning. But not bad ! Basic breakfast and very friendly staff. Was in town for an event at the civic center, easy access to that as well as the airport!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2015</t>
+  </si>
+  <si>
+    <t>We enjoyed staying here! Rooms spacious, clean and very comfy! Would have rates it higher, but the dogs outside at the dig sitting place were a littlw noisy in the morning. But not bad ! Basic breakfast and very friendly staff. Was in town for an event at the civic center, easy access to that as well as the airport!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r302296917-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302296917</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>5 minutes from downtown for 25% less</t>
+  </si>
+  <si>
+    <t>Since I was on my own nickel for this business trip, I chose to stay near downtown but not in downtown. This hotel was a good choice.The room was quiet, clean and comfortable. The staff was very friendly and efficient. Breakfast was average.The only negative is there is not a good choice of restaurants nearby. The hotel is in a Hispanic neighborhood. Therefore most restaurants are Mexican. The one Asian joint ai found was not very tasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Since I was on my own nickel for this business trip, I chose to stay near downtown but not in downtown. This hotel was a good choice.The room was quiet, clean and comfortable. The staff was very friendly and efficient. Breakfast was average.The only negative is there is not a good choice of restaurants nearby. The hotel is in a Hispanic neighborhood. Therefore most restaurants are Mexican. The one Asian joint ai found was not very tasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r301147259-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301147259</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Worked for us</t>
+  </si>
+  <si>
+    <t>Fridge, clean.  Worked for us.  First time, but we come to Houston often and will do again.  Rate is less than you'd pay for most  Holiday Inn Express' in the area -- and comparable and in some cases better.  Only took about 30 minutes in rush hour traffic to get to MD Anderson.MoreShow less</t>
+  </si>
+  <si>
+    <t>Fridge, clean.  Worked for us.  First time, but we come to Houston often and will do again.  Rate is less than you'd pay for most  Holiday Inn Express' in the area -- and comparable and in some cases better.  Only took about 30 minutes in rush hour traffic to get to MD Anderson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r275163427-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275163427</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>I arrived early Tuesday morning when most of the city was flooded due to a freak long-lasting rain storm.  I-45 was at a standstill as the freeway was flooded where it goes underneath Main St.Many drivers abandoned their vehicles and walked to the hotel as it was the only thing open during the 10:00pm - 8:00am ordeal.  The only person on staff at the front desk (Theresa) professionally handled the guests and non-guests in the lobby and tried to make everyone comfortable and safe during the ordeal.  I could tell she was flustered as people kept asking for rooms and bathroom privileges but she handled it with a cool head and showed respect to everyone.  Great job in a tough situation.  I was very impressed with the training this hotel gives to its employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>I arrived early Tuesday morning when most of the city was flooded due to a freak long-lasting rain storm.  I-45 was at a standstill as the freeway was flooded where it goes underneath Main St.Many drivers abandoned their vehicles and walked to the hotel as it was the only thing open during the 10:00pm - 8:00am ordeal.  The only person on staff at the front desk (Theresa) professionally handled the guests and non-guests in the lobby and tried to make everyone comfortable and safe during the ordeal.  I could tell she was flustered as people kept asking for rooms and bathroom privileges but she handled it with a cool head and showed respect to everyone.  Great job in a tough situation.  I was very impressed with the training this hotel gives to its employees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r270804259-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270804259</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Bad customer service</t>
+  </si>
+  <si>
+    <t>I left a bag at check out and when I realized it I called the hotel and gave them my information and was told it would be mailed out the next day.   When I called 2 days later they still had my bag and theasier manager hung up on me when I expressed how upset I was and when I called back a second later I was told she just left.  Shame on you Mrs Kurpali and Teresa who works the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2015</t>
+  </si>
+  <si>
+    <t>I left a bag at check out and when I realized it I called the hotel and gave them my information and was told it would be mailed out the next day.   When I called 2 days later they still had my bag and theasier manager hung up on me when I expressed how upset I was and when I called back a second later I was told she just left.  Shame on you Mrs Kurpali and Teresa who works the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r270738899-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270738899</t>
+  </si>
+  <si>
+    <t>" A nice surprise"</t>
+  </si>
+  <si>
+    <t>First time I ever stayed at a SLEEP INN hotel and I was very happy with the experience the saff was very friendly and happy to make your stay pleasant,on arrival they even give you a little goody bag. The room was clean and comfy and well provided for. A few restaurants were very close by to walk to. We also got a great rate last minute from Hotels.com.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>First time I ever stayed at a SLEEP INN hotel and I was very happy with the experience the saff was very friendly and happy to make your stay pleasant,on arrival they even give you a little goody bag. The room was clean and comfy and well provided for. A few restaurants were very close by to walk to. We also got a great rate last minute from Hotels.com.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r260208145-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260208145</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>What a "suite" surprise</t>
+  </si>
+  <si>
+    <t>From check-in to check out, this little gem was a treat!  We were greeted with a little goodies bag containing water and chips and a huge smile.  The lobby and public areas were immaculate and smelled like a new property.  Our room was clean, big and well appointed.  I must admit I was a bit hesitant when we arrived (as a former Houston resident, I knew the area wasn't the best) but the hotel quickly put that to rest.  The location is very convenient for downtown activities and with a make the block maneuver you can pull right onto the freeway.  Will definitely be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Director of Sales at Sleep Inn &amp; Suites, responded to this reviewResponded April 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2015</t>
+  </si>
+  <si>
+    <t>From check-in to check out, this little gem was a treat!  We were greeted with a little goodies bag containing water and chips and a huge smile.  The lobby and public areas were immaculate and smelled like a new property.  Our room was clean, big and well appointed.  I must admit I was a bit hesitant when we arrived (as a former Houston resident, I knew the area wasn't the best) but the hotel quickly put that to rest.  The location is very convenient for downtown activities and with a make the block maneuver you can pull right onto the freeway.  Will definitely be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r233652831-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233652831</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>Good Experience</t>
+  </si>
+  <si>
+    <t>I have stayed at this motel many times without having problems. On the one occasion I had a complaint they immediately switched my room without a question.There are a few good restaurants on Airline Street near the motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Nikita K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded November 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this motel many times without having problems. On the one occasion I had a complaint they immediately switched my room without a question.There are a few good restaurants on Airline Street near the motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r233230847-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233230847</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>Lovely Hotel, nice Bed and Big rooms</t>
+  </si>
+  <si>
+    <t>This  is a New Hotel,  with a big rooms  very comfortable Beds , high speed Internet ..  and  good Breakfast,  the location is good,  little far away of  Houston Centre,  but if you in car or  walk just few feet's to take the Bus is OK ...  I no give you 5 excellent rating,  because the location is little far away,  but doesn't matter the hotel is really nice,  And we expected in our stay  the ladies attending the breakfast  sometimes little  smile but they are very serious all the times like ( no talk with me ) however everything was great..  Recommended..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r209144424-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209144424</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>One of my favorite places to stay for business</t>
+  </si>
+  <si>
+    <t>The property is small, nearly new, very clean, has a great staff, internet is fast, breakfast is very good, and the the location is convenient. I stay at this location every time I'm in Houston.  Actually I rotate between this Choice Hotel location and a couple other comparable properties to maximize my Choice Privileges points.  Right now 2 separate stays give you enough points to redeem for a $50 gift card.  You can't beat this program.  Another plus is that Choice Hotels are EVERYWHERE!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r205461837-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205461837</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Under-appreciated gem in a good location</t>
+  </si>
+  <si>
+    <t>I spent two nights here during the week of a massive convention when hotels were hard to find. I was hesitant at first based on the reviews and the fact that it only mustered two stars. The hotel is well located on Hwy 45 within the 610 loop, which means you can get just about anywhere in the downtown area within 15 to 20 minutes. I was able to get from the hotel to the Reliant Arena in south Houston in less than 30 minutes. The rooms were surprisingly clean, well maintained, newly remodeled with tasteful decor, and very comfortable. The staff were friendly, and they hosted a 6pm "happy hour" with free beer every day I was there. The complimentary breakfast was decent, all things considered. Bacon, eggs, sausage, assorted pastries, waffles, yogurt, fresh fruit, coffee and juice. Nothing to really complain about there. The only two things that seemed odd to me: 1) the neighborhood around the hotel is in a state of transition… some nice homes next to some old run down places.. 2) the smell as you enter the lobby reminded me of an Asian market.. not exactly inviting. Otherwise, I really liked the hotel. So much so that I will stay here again whenever I'm in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Nikita K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2014</t>
+  </si>
+  <si>
+    <t>I spent two nights here during the week of a massive convention when hotels were hard to find. I was hesitant at first based on the reviews and the fact that it only mustered two stars. The hotel is well located on Hwy 45 within the 610 loop, which means you can get just about anywhere in the downtown area within 15 to 20 minutes. I was able to get from the hotel to the Reliant Arena in south Houston in less than 30 minutes. The rooms were surprisingly clean, well maintained, newly remodeled with tasteful decor, and very comfortable. The staff were friendly, and they hosted a 6pm "happy hour" with free beer every day I was there. The complimentary breakfast was decent, all things considered. Bacon, eggs, sausage, assorted pastries, waffles, yogurt, fresh fruit, coffee and juice. Nothing to really complain about there. The only two things that seemed odd to me: 1) the neighborhood around the hotel is in a state of transition… some nice homes next to some old run down places.. 2) the smell as you enter the lobby reminded me of an Asian market.. not exactly inviting. Otherwise, I really liked the hotel. So much so that I will stay here again whenever I'm in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r205409344-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205409344</t>
+  </si>
+  <si>
+    <t>Smelly and overpriced</t>
+  </si>
+  <si>
+    <t>This hotel was extremely smelly.  The rooms, the elevator and the lobby all smelled terrible.  We tried to book a hotel in Houston 3 weeks prior to our trip and everything was sold out due to a convention in town.  This was a last resort.  It was very overpriced and not a good value for the money.  Our room with taxes was $250.00.  I would definitely not recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was extremely smelly.  The rooms, the elevator and the lobby all smelled terrible.  We tried to book a hotel in Houston 3 weeks prior to our trip and everything was sold out due to a convention in town.  This was a last resort.  It was very overpriced and not a good value for the money.  Our room with taxes was $250.00.  I would definitely not recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r190463166-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190463166</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>Sleep Inn &amp; Suites was affordable, very clean and fancier than I expected. Our bathroom had granite counters and shower, the bed was so super comfortable, and the room had a decent flat screen. The staff was very pleasant and accommodating as well. The main reason I booked the hotel was based on price alone but I had low expectations. I was pleasantly surprised with how nice everything was. I will definitely stay at Sleep Inn &amp; Suites again. For such a nice quality establishment, you can't beat the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Furrukh K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Sleep Inn &amp; Suites was affordable, very clean and fancier than I expected. Our bathroom had granite counters and shower, the bed was so super comfortable, and the room had a decent flat screen. The staff was very pleasant and accommodating as well. The main reason I booked the hotel was based on price alone but I had low expectations. I was pleasantly surprised with how nice everything was. I will definitely stay at Sleep Inn &amp; Suites again. For such a nice quality establishment, you can't beat the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r185955601-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185955601</t>
+  </si>
+  <si>
+    <t>11/26/2013</t>
+  </si>
+  <si>
+    <t>Good hotel close to downtown.</t>
+  </si>
+  <si>
+    <t>This hotel was new and clean. The area seemed nice and it was just a few minutes from downtown. The eating choice in the area are limited but I would recommend this place if you need something close to downtown. MoreShow less</t>
+  </si>
+  <si>
+    <t>Furrukh K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded December 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was new and clean. The area seemed nice and it was just a few minutes from downtown. The eating choice in the area are limited but I would recommend this place if you need something close to downtown. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r183812430-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183812430</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Clean &amp; Quite</t>
+  </si>
+  <si>
+    <t>Hotel room was comfortable, clean, and up to date. The location seemed sketchy to me at first considering the immediate surrounding areas. My room was very quiet and I had a good nights sleep.Parking was free but very limited. There was a sign in the lobby apologizing for the parking - so they must be working on renovations.Very affordable to be so close to downtown. I easily saved $150/night at this location. There are not any restaurants that you can walk to nor would you want to probably.There was not an attendant at the desk when I checked out at 6:00am. I rang the bell and waited... Makes you wonder about overall security.I don't know if I'd bring my family here but I'd use this location for business travel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Hotel room was comfortable, clean, and up to date. The location seemed sketchy to me at first considering the immediate surrounding areas. My room was very quiet and I had a good nights sleep.Parking was free but very limited. There was a sign in the lobby apologizing for the parking - so they must be working on renovations.Very affordable to be so close to downtown. I easily saved $150/night at this location. There are not any restaurants that you can walk to nor would you want to probably.There was not an attendant at the desk when I checked out at 6:00am. I rang the bell and waited... Makes you wonder about overall security.I don't know if I'd bring my family here but I'd use this location for business travel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r157123459-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157123459</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>I come to Houston often for business and since I have quite a few family members that reside there. I've stayed at this hotel four times in the last six months (most recently in March) and each time I am more and more satisfied. Rooms are spacious, beds are comfy, breakfast is great, and the location is convenient. But I come here because of the friendliness. Everyone that works there from the receptionists to the housekeepers to the managers are so kind. I really feel at home when I stay there and that's why I keep going back there. If you're looking for a place to stay where you can feel at home and just feel comfortable, this is the place. I really recommend this hotel. Hope my review helps.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I come to Houston often for business and since I have quite a few family members that reside there. I've stayed at this hotel four times in the last six months (most recently in March) and each time I am more and more satisfied. Rooms are spacious, beds are comfy, breakfast is great, and the location is convenient. But I come here because of the friendliness. Everyone that works there from the receptionists to the housekeepers to the managers are so kind. I really feel at home when I stay there and that's why I keep going back there. If you're looking for a place to stay where you can feel at home and just feel comfortable, this is the place. I really recommend this hotel. Hope my review helps.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r157053932-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157053932</t>
+  </si>
+  <si>
+    <t>Fantastic hotel</t>
+  </si>
+  <si>
+    <t>I just stayed at this hotel on April 4-6th, for three nights. Was in town to visit family and tour the city. To be honest, it was a wonderful place to stay. The staff was very well mannered and extremely kind to their guests. The front desk agents were very helpful when we needed anything. From printing out directions for us to giving us a few extra towels to personally coming to our third floor room to give us extra coffee packets, they made no delay in satisfying our requests. It's like we were on their VIP list. What I loved most about this hotel, though, is the location! RIGHT OFF the freeway; easy in, easy out. Although you'll need a taxi or a car to get to most places; we planned ahead and rented a car while we were in town. The rental car and the location of the hotel made our numerous trips to downtown pretty quick considering the normal traffic in downtown Houston.  We stayed in a double-bed room. Even though there were four of us for two nights, the rooms were pretty spacious. The flat screen TV was awesome just because, in my experience, a lot of hotels don't offer expensive, flat screens in their rooms. The breakfast was excellent. They had a wide variety of breakfast choices from waffles to eggs to bagels to muffins plus more. And the quality of the items were great;...I just stayed at this hotel on April 4-6th, for three nights. Was in town to visit family and tour the city. To be honest, it was a wonderful place to stay. The staff was very well mannered and extremely kind to their guests. The front desk agents were very helpful when we needed anything. From printing out directions for us to giving us a few extra towels to personally coming to our third floor room to give us extra coffee packets, they made no delay in satisfying our requests. It's like we were on their VIP list. What I loved most about this hotel, though, is the location! RIGHT OFF the freeway; easy in, easy out. Although you'll need a taxi or a car to get to most places; we planned ahead and rented a car while we were in town. The rental car and the location of the hotel made our numerous trips to downtown pretty quick considering the normal traffic in downtown Houston.  We stayed in a double-bed room. Even though there were four of us for two nights, the rooms were pretty spacious. The flat screen TV was awesome just because, in my experience, a lot of hotels don't offer expensive, flat screens in their rooms. The breakfast was excellent. They had a wide variety of breakfast choices from waffles to eggs to bagels to muffins plus more. And the quality of the items were great; something you don't normally see at other hotels. I am coming back to Houston for business in a few weeks and definitely plan on staying here again. I definitely recommend this hotel to anyone who is looking for a place to stay in that area and even if you are not looking in that specific area, I still recommend it. You won't regret it. Until next time people. Thanks for reading :)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I just stayed at this hotel on April 4-6th, for three nights. Was in town to visit family and tour the city. To be honest, it was a wonderful place to stay. The staff was very well mannered and extremely kind to their guests. The front desk agents were very helpful when we needed anything. From printing out directions for us to giving us a few extra towels to personally coming to our third floor room to give us extra coffee packets, they made no delay in satisfying our requests. It's like we were on their VIP list. What I loved most about this hotel, though, is the location! RIGHT OFF the freeway; easy in, easy out. Although you'll need a taxi or a car to get to most places; we planned ahead and rented a car while we were in town. The rental car and the location of the hotel made our numerous trips to downtown pretty quick considering the normal traffic in downtown Houston.  We stayed in a double-bed room. Even though there were four of us for two nights, the rooms were pretty spacious. The flat screen TV was awesome just because, in my experience, a lot of hotels don't offer expensive, flat screens in their rooms. The breakfast was excellent. They had a wide variety of breakfast choices from waffles to eggs to bagels to muffins plus more. And the quality of the items were great;...I just stayed at this hotel on April 4-6th, for three nights. Was in town to visit family and tour the city. To be honest, it was a wonderful place to stay. The staff was very well mannered and extremely kind to their guests. The front desk agents were very helpful when we needed anything. From printing out directions for us to giving us a few extra towels to personally coming to our third floor room to give us extra coffee packets, they made no delay in satisfying our requests. It's like we were on their VIP list. What I loved most about this hotel, though, is the location! RIGHT OFF the freeway; easy in, easy out. Although you'll need a taxi or a car to get to most places; we planned ahead and rented a car while we were in town. The rental car and the location of the hotel made our numerous trips to downtown pretty quick considering the normal traffic in downtown Houston.  We stayed in a double-bed room. Even though there were four of us for two nights, the rooms were pretty spacious. The flat screen TV was awesome just because, in my experience, a lot of hotels don't offer expensive, flat screens in their rooms. The breakfast was excellent. They had a wide variety of breakfast choices from waffles to eggs to bagels to muffins plus more. And the quality of the items were great; something you don't normally see at other hotels. I am coming back to Houston for business in a few weeks and definitely plan on staying here again. I definitely recommend this hotel to anyone who is looking for a place to stay in that area and even if you are not looking in that specific area, I still recommend it. You won't regret it. Until next time people. Thanks for reading :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r156746686-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156746686</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Definitely the place I will be staying during my next trip to Houston. Made a weekend trip to Houston from San Antonio. Checked in with ease; front desk agent was very helpful and kind. Rooms weren't too big, but definitely an appropriate size for two people. Location was extremely convenient! Right off the freeway and very close to downtown. Great breakfast service as well! Only complaint I had was there were no more luggage carts available when we checked out as we packed heavy. They only had two carts which other guests were using. Other than that, I definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Definitely the place I will be staying during my next trip to Houston. Made a weekend trip to Houston from San Antonio. Checked in with ease; front desk agent was very helpful and kind. Rooms weren't too big, but definitely an appropriate size for two people. Location was extremely convenient! Right off the freeway and very close to downtown. Great breakfast service as well! Only complaint I had was there were no more luggage carts available when we checked out as we packed heavy. They only had two carts which other guests were using. Other than that, I definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r140201993-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140201993</t>
+  </si>
+  <si>
+    <t>09/13/2012</t>
+  </si>
+  <si>
+    <t>Great location and wonderful hotel!</t>
+  </si>
+  <si>
+    <t>We have stayed many times at this hotel and we keep coming back.  It's very well run.  It's modern, clean, the staff are terrific and the location is perfect.  Can't say enough good things about the Sleep Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We have stayed many times at this hotel and we keep coming back.  It's very well run.  It's modern, clean, the staff are terrific and the location is perfect.  Can't say enough good things about the Sleep Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r137563872-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137563872</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>First time I stayed here it was around average. Stay just last week and the room I had was totally remodeled. New bed. Flat screen TV. New desk, fridge. Loved it!! Breakfast was good and there was a lot of room. I didn't use the pool so I don't know about that. Good location as it's close to downtown. It is right off the interstate so the traffic noise is a bit loud at times.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Furrukh K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded December 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2013</t>
+  </si>
+  <si>
+    <t>First time I stayed here it was around average. Stay just last week and the room I had was totally remodeled. New bed. Flat screen TV. New desk, fridge. Loved it!! Breakfast was good and there was a lot of room. I didn't use the pool so I don't know about that. Good location as it's close to downtown. It is right off the interstate so the traffic noise is a bit loud at times.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r123604808-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123604808</t>
+  </si>
+  <si>
+    <t>01/25/2012</t>
+  </si>
+  <si>
+    <t>Great hotel, good price and all-inclusive!</t>
+  </si>
+  <si>
+    <t>I ended up here after a mess created by my travel agency at other hotel downtown. The hotel is right next to the I-45, so it's almost impossible to get lost finding it. We payed for this hotel $100 for 3 people, two queen size beds. The room included beds, high-speed WiFi internet, a fridge, flat screen TV with cable, a microwave oven, a very comfortable 1 seat sofa, and a desk. The room was very clean. The bathroom was quite neat, spacious and clean. The girl at the front desk was very nice and polite. We checked-in at about midnight. She helped us find driving directions, and informed us we also had breakfast included. The next morning we woke up and headed to the breakfast room. We believed it would be a normal continental breakfast, which would include coffee and bread, however, we were surprised when we found out that the breakfat was actually assorted. There were omelets, hot dogs, orange and apple juice, coffee, bread, three different types of cereal, waffles, etc. The breakfast was quite well. My mom had to check her e-mail, and while my sister and I have iPods, she had no computer. The girl at the desk offered the bussiness center, in which we managed to make some phone calls to our travel agency and my mom could check her e-mail. After that, we headed downtown. The hotel is really close to Houston's Downtown,...I ended up here after a mess created by my travel agency at other hotel downtown. The hotel is right next to the I-45, so it's almost impossible to get lost finding it. We payed for this hotel $100 for 3 people, two queen size beds. The room included beds, high-speed WiFi internet, a fridge, flat screen TV with cable, a microwave oven, a very comfortable 1 seat sofa, and a desk. The room was very clean. The bathroom was quite neat, spacious and clean. The girl at the front desk was very nice and polite. We checked-in at about midnight. She helped us find driving directions, and informed us we also had breakfast included. The next morning we woke up and headed to the breakfast room. We believed it would be a normal continental breakfast, which would include coffee and bread, however, we were surprised when we found out that the breakfat was actually assorted. There were omelets, hot dogs, orange and apple juice, coffee, bread, three different types of cereal, waffles, etc. The breakfast was quite well. My mom had to check her e-mail, and while my sister and I have iPods, she had no computer. The girl at the desk offered the bussiness center, in which we managed to make some phone calls to our travel agency and my mom could check her e-mail. After that, we headed downtown. The hotel is really close to Houston's Downtown, about 10 minutes. After that night we managed to solve the problem with out travel agency and stayed at other hotel, nevertheless, my family and I agreed that, eventhough the other hotel is from a very important brand of hotels, the room and service was even better at Sleep Inn than at the other hotel. I really recommend this as an option for Houston travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I ended up here after a mess created by my travel agency at other hotel downtown. The hotel is right next to the I-45, so it's almost impossible to get lost finding it. We payed for this hotel $100 for 3 people, two queen size beds. The room included beds, high-speed WiFi internet, a fridge, flat screen TV with cable, a microwave oven, a very comfortable 1 seat sofa, and a desk. The room was very clean. The bathroom was quite neat, spacious and clean. The girl at the front desk was very nice and polite. We checked-in at about midnight. She helped us find driving directions, and informed us we also had breakfast included. The next morning we woke up and headed to the breakfast room. We believed it would be a normal continental breakfast, which would include coffee and bread, however, we were surprised when we found out that the breakfat was actually assorted. There were omelets, hot dogs, orange and apple juice, coffee, bread, three different types of cereal, waffles, etc. The breakfast was quite well. My mom had to check her e-mail, and while my sister and I have iPods, she had no computer. The girl at the desk offered the bussiness center, in which we managed to make some phone calls to our travel agency and my mom could check her e-mail. After that, we headed downtown. The hotel is really close to Houston's Downtown,...I ended up here after a mess created by my travel agency at other hotel downtown. The hotel is right next to the I-45, so it's almost impossible to get lost finding it. We payed for this hotel $100 for 3 people, two queen size beds. The room included beds, high-speed WiFi internet, a fridge, flat screen TV with cable, a microwave oven, a very comfortable 1 seat sofa, and a desk. The room was very clean. The bathroom was quite neat, spacious and clean. The girl at the front desk was very nice and polite. We checked-in at about midnight. She helped us find driving directions, and informed us we also had breakfast included. The next morning we woke up and headed to the breakfast room. We believed it would be a normal continental breakfast, which would include coffee and bread, however, we were surprised when we found out that the breakfat was actually assorted. There were omelets, hot dogs, orange and apple juice, coffee, bread, three different types of cereal, waffles, etc. The breakfast was quite well. My mom had to check her e-mail, and while my sister and I have iPods, she had no computer. The girl at the desk offered the bussiness center, in which we managed to make some phone calls to our travel agency and my mom could check her e-mail. After that, we headed downtown. The hotel is really close to Houston's Downtown, about 10 minutes. After that night we managed to solve the problem with out travel agency and stayed at other hotel, nevertheless, my family and I agreed that, eventhough the other hotel is from a very important brand of hotels, the room and service was even better at Sleep Inn than at the other hotel. I really recommend this as an option for Houston travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r82641853-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>82641853</t>
+  </si>
+  <si>
+    <t>10/08/2010</t>
+  </si>
+  <si>
+    <t>Would definitely come back again</t>
+  </si>
+  <si>
+    <t>Me and my family recently stayed at this hotel while we were in town for vacation. This was my first time at this hotel, but it was a great stay. The staff is very nice and well mannered. The hotel looks brand new and the rooms were very nice. The beds are much more comfortable compared to average 3-5 star hotels. They had good food in the morning for breakfast and the hotel is right off the freeway. Great location! I would definitely recommend this hotel and I will definitely come back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Me and my family recently stayed at this hotel while we were in town for vacation. This was my first time at this hotel, but it was a great stay. The staff is very nice and well mannered. The hotel looks brand new and the rooms were very nice. The beds are much more comfortable compared to average 3-5 star hotels. They had good food in the morning for breakfast and the hotel is right off the freeway. Great location! I would definitely recommend this hotel and I will definitely come back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r63564439-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>63564439</t>
+  </si>
+  <si>
+    <t>05/08/2010</t>
+  </si>
+  <si>
+    <t>Clean and Friendly</t>
+  </si>
+  <si>
+    <t>This hotel looks almost brand new. I suspect the property was built within the last year or so. Notice the "Monk" figure at front desk. Rooms are fresh, clean, and new looking. Nice-sized flat screen television, and comfortable king bed. A major freeway is parallel to the hotel. I was assigned a front room facing the freeway, and was concerned about traffic noises, but the window air conditioner drowned out any external noises. As suggested by prior reviewer, in absence of a vehicle, plan to make taxi arrangements, and perhaps 1/2 hour prior to your departure. Also, if your departing for downtown during morning rush, beware of others in the lobby lurking for their taxi also.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>This hotel looks almost brand new. I suspect the property was built within the last year or so. Notice the "Monk" figure at front desk. Rooms are fresh, clean, and new looking. Nice-sized flat screen television, and comfortable king bed. A major freeway is parallel to the hotel. I was assigned a front room facing the freeway, and was concerned about traffic noises, but the window air conditioner drowned out any external noises. As suggested by prior reviewer, in absence of a vehicle, plan to make taxi arrangements, and perhaps 1/2 hour prior to your departure. Also, if your departing for downtown during morning rush, beware of others in the lobby lurking for their taxi also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r62391130-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>62391130</t>
+  </si>
+  <si>
+    <t>04/25/2010</t>
+  </si>
+  <si>
+    <t>Nice Option for The Heights</t>
+  </si>
+  <si>
+    <t>My parents stayed here for a week while visiting us. They were very pleased with the accomodation. Good comfortable rooms, large breakfasts and convenient to our house in the Heights. Normally they stay at one of the local B&amp;Bs but have found those to be less of a quality for the price lately and this Sleep Inn turned out to be a good option. You definitely need a car or taxi to get anywhere from the hotel and I wouldn't recommend a lot of night walking but it is fine during the day and is easy on/easy off for the freeway just north of downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>My parents stayed here for a week while visiting us. They were very pleased with the accomodation. Good comfortable rooms, large breakfasts and convenient to our house in the Heights. Normally they stay at one of the local B&amp;Bs but have found those to be less of a quality for the price lately and this Sleep Inn turned out to be a good option. You definitely need a car or taxi to get anywhere from the hotel and I wouldn't recommend a lot of night walking but it is fine during the day and is easy on/easy off for the freeway just north of downtown.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2113,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2145,4697 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>176</v>
+      </c>
+      <c r="X20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>176</v>
+      </c>
+      <c r="X21" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>207</v>
+      </c>
+      <c r="X24" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>215</v>
+      </c>
+      <c r="X25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>223</v>
+      </c>
+      <c r="O26" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>224</v>
+      </c>
+      <c r="X26" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>232</v>
+      </c>
+      <c r="X27" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>223</v>
+      </c>
+      <c r="O28" t="s">
+        <v>116</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>232</v>
+      </c>
+      <c r="X28" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>246</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>247</v>
+      </c>
+      <c r="X29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>251</v>
+      </c>
+      <c r="J30" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" t="s">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s">
+        <v>254</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>256</v>
+      </c>
+      <c r="X30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s">
+        <v>126</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>256</v>
+      </c>
+      <c r="X31" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s">
+        <v>126</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>282</v>
+      </c>
+      <c r="O34" t="s">
+        <v>116</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
+        <v>293</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>296</v>
+      </c>
+      <c r="J37" t="s">
+        <v>297</v>
+      </c>
+      <c r="K37" t="s">
+        <v>298</v>
+      </c>
+      <c r="L37" t="s">
+        <v>299</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>294</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>301</v>
+      </c>
+      <c r="J38" t="s">
+        <v>302</v>
+      </c>
+      <c r="K38" t="s">
+        <v>303</v>
+      </c>
+      <c r="L38" t="s">
+        <v>304</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>305</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>305</v>
+      </c>
+      <c r="O39" t="s">
+        <v>107</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>311</v>
+      </c>
+      <c r="X39" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s">
+        <v>318</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>319</v>
+      </c>
+      <c r="X40" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>322</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>323</v>
+      </c>
+      <c r="J41" t="s">
+        <v>324</v>
+      </c>
+      <c r="K41" t="s">
+        <v>325</v>
+      </c>
+      <c r="L41" t="s">
+        <v>326</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>327</v>
+      </c>
+      <c r="O41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>328</v>
+      </c>
+      <c r="X41" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>331</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>332</v>
+      </c>
+      <c r="J42" t="s">
+        <v>324</v>
+      </c>
+      <c r="K42" t="s">
+        <v>333</v>
+      </c>
+      <c r="L42" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>327</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>328</v>
+      </c>
+      <c r="X42" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>337</v>
+      </c>
+      <c r="J43" t="s">
+        <v>324</v>
+      </c>
+      <c r="K43" t="s">
+        <v>338</v>
+      </c>
+      <c r="L43" t="s">
+        <v>339</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>328</v>
+      </c>
+      <c r="X43" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" t="s">
+        <v>343</v>
+      </c>
+      <c r="K44" t="s">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s">
+        <v>345</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>346</v>
+      </c>
+      <c r="O44" t="s">
+        <v>126</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>347</v>
+      </c>
+      <c r="X44" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>351</v>
+      </c>
+      <c r="J45" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s">
+        <v>354</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s">
+        <v>107</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>356</v>
+      </c>
+      <c r="X45" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>359</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>360</v>
+      </c>
+      <c r="J46" t="s">
+        <v>361</v>
+      </c>
+      <c r="K46" t="s">
+        <v>362</v>
+      </c>
+      <c r="L46" t="s">
+        <v>363</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O46" t="s">
+        <v>116</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>364</v>
+      </c>
+      <c r="X46" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>367</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>368</v>
+      </c>
+      <c r="J47" t="s">
+        <v>369</v>
+      </c>
+      <c r="K47" t="s">
+        <v>370</v>
+      </c>
+      <c r="L47" t="s">
+        <v>371</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>372</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>373</v>
+      </c>
+      <c r="X47" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>376</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>377</v>
+      </c>
+      <c r="J48" t="s">
+        <v>378</v>
+      </c>
+      <c r="K48" t="s">
+        <v>379</v>
+      </c>
+      <c r="L48" t="s">
+        <v>380</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>381</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>382</v>
+      </c>
+      <c r="X48" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>385</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>386</v>
+      </c>
+      <c r="J49" t="s">
+        <v>387</v>
+      </c>
+      <c r="K49" t="s">
+        <v>388</v>
+      </c>
+      <c r="L49" t="s">
+        <v>389</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>390</v>
+      </c>
+      <c r="O49" t="s">
+        <v>116</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>382</v>
+      </c>
+      <c r="X49" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>392</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" t="s">
+        <v>395</v>
+      </c>
+      <c r="L50" t="s">
+        <v>396</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>397</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>398</v>
+      </c>
+      <c r="X50" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" t="s">
+        <v>403</v>
+      </c>
+      <c r="K51" t="s">
+        <v>404</v>
+      </c>
+      <c r="L51" t="s">
+        <v>405</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>406</v>
+      </c>
+      <c r="O51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>407</v>
+      </c>
+      <c r="X51" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>410</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>411</v>
+      </c>
+      <c r="J52" t="s">
+        <v>412</v>
+      </c>
+      <c r="K52" t="s">
+        <v>413</v>
+      </c>
+      <c r="L52" t="s">
+        <v>414</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>407</v>
+      </c>
+      <c r="X52" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>416</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>417</v>
+      </c>
+      <c r="J53" t="s">
+        <v>418</v>
+      </c>
+      <c r="K53" t="s">
+        <v>419</v>
+      </c>
+      <c r="L53" t="s">
+        <v>420</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>421</v>
+      </c>
+      <c r="O53" t="s">
+        <v>116</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>422</v>
+      </c>
+      <c r="X53" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>425</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>426</v>
+      </c>
+      <c r="J54" t="s">
+        <v>427</v>
+      </c>
+      <c r="K54" t="s">
+        <v>428</v>
+      </c>
+      <c r="L54" t="s">
+        <v>429</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>421</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>430</v>
+      </c>
+      <c r="X54" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>433</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>434</v>
+      </c>
+      <c r="J55" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" t="s">
+        <v>435</v>
+      </c>
+      <c r="L55" t="s">
+        <v>436</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>437</v>
+      </c>
+      <c r="O55" t="s">
+        <v>107</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>430</v>
+      </c>
+      <c r="X55" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>440</v>
+      </c>
+      <c r="J56" t="s">
+        <v>441</v>
+      </c>
+      <c r="K56" t="s">
+        <v>442</v>
+      </c>
+      <c r="L56" t="s">
+        <v>443</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>444</v>
+      </c>
+      <c r="O56" t="s">
+        <v>126</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>445</v>
+      </c>
+      <c r="X56" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>448</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>449</v>
+      </c>
+      <c r="J57" t="s">
+        <v>450</v>
+      </c>
+      <c r="K57" t="s">
+        <v>451</v>
+      </c>
+      <c r="L57" t="s">
+        <v>452</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>453</v>
+      </c>
+      <c r="O57" t="s">
+        <v>116</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>454</v>
+      </c>
+      <c r="X57" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>458</v>
+      </c>
+      <c r="J58" t="s">
+        <v>459</v>
+      </c>
+      <c r="K58" t="s">
+        <v>460</v>
+      </c>
+      <c r="L58" t="s">
+        <v>461</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>453</v>
+      </c>
+      <c r="O58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>462</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>463</v>
+      </c>
+      <c r="J59" t="s">
+        <v>464</v>
+      </c>
+      <c r="K59" t="s">
+        <v>465</v>
+      </c>
+      <c r="L59" t="s">
+        <v>466</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>467</v>
+      </c>
+      <c r="O59" t="s">
+        <v>116</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>473</v>
+      </c>
+      <c r="O60" t="s">
+        <v>116</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>474</v>
+      </c>
+      <c r="X60" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>477</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>478</v>
+      </c>
+      <c r="J61" t="s">
+        <v>470</v>
+      </c>
+      <c r="K61" t="s">
+        <v>479</v>
+      </c>
+      <c r="L61" t="s">
+        <v>480</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>473</v>
+      </c>
+      <c r="O61" t="s">
+        <v>116</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>474</v>
+      </c>
+      <c r="X61" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>482</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>483</v>
+      </c>
+      <c r="J62" t="s">
+        <v>484</v>
+      </c>
+      <c r="K62" t="s">
+        <v>485</v>
+      </c>
+      <c r="L62" t="s">
+        <v>486</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>487</v>
+      </c>
+      <c r="O62" t="s">
+        <v>107</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>488</v>
+      </c>
+      <c r="X62" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>491</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>492</v>
+      </c>
+      <c r="J63" t="s">
+        <v>493</v>
+      </c>
+      <c r="K63" t="s">
+        <v>494</v>
+      </c>
+      <c r="L63" t="s">
+        <v>495</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>496</v>
+      </c>
+      <c r="X63" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>499</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>500</v>
+      </c>
+      <c r="J64" t="s">
+        <v>501</v>
+      </c>
+      <c r="K64" t="s">
+        <v>502</v>
+      </c>
+      <c r="L64" t="s">
+        <v>503</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>504</v>
+      </c>
+      <c r="O64" t="s">
+        <v>116</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>496</v>
+      </c>
+      <c r="X64" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>506</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>507</v>
+      </c>
+      <c r="J65" t="s">
+        <v>508</v>
+      </c>
+      <c r="K65" t="s">
+        <v>509</v>
+      </c>
+      <c r="L65" t="s">
+        <v>510</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>511</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>496</v>
+      </c>
+      <c r="X65" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>513</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>514</v>
+      </c>
+      <c r="J66" t="s">
+        <v>508</v>
+      </c>
+      <c r="K66" t="s">
+        <v>515</v>
+      </c>
+      <c r="L66" t="s">
+        <v>516</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>517</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>496</v>
+      </c>
+      <c r="X66" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>519</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>520</v>
+      </c>
+      <c r="J67" t="s">
+        <v>521</v>
+      </c>
+      <c r="K67" t="s">
+        <v>522</v>
+      </c>
+      <c r="L67" t="s">
+        <v>523</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>511</v>
+      </c>
+      <c r="O67" t="s">
+        <v>126</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>496</v>
+      </c>
+      <c r="X67" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>525</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>526</v>
+      </c>
+      <c r="J68" t="s">
+        <v>527</v>
+      </c>
+      <c r="K68" t="s">
+        <v>528</v>
+      </c>
+      <c r="L68" t="s">
+        <v>529</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>530</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>496</v>
+      </c>
+      <c r="X68" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>532</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>533</v>
+      </c>
+      <c r="J69" t="s">
+        <v>534</v>
+      </c>
+      <c r="K69" t="s">
+        <v>535</v>
+      </c>
+      <c r="L69" t="s">
+        <v>536</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>537</v>
+      </c>
+      <c r="O69" t="s">
+        <v>116</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>538</v>
+      </c>
+      <c r="X69" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>541</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>542</v>
+      </c>
+      <c r="J70" t="s">
+        <v>543</v>
+      </c>
+      <c r="K70" t="s">
+        <v>544</v>
+      </c>
+      <c r="L70" t="s">
+        <v>545</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>546</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>496</v>
+      </c>
+      <c r="X70" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>548</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>549</v>
+      </c>
+      <c r="J71" t="s">
+        <v>550</v>
+      </c>
+      <c r="K71" t="s">
+        <v>551</v>
+      </c>
+      <c r="L71" t="s">
+        <v>552</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>553</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>496</v>
+      </c>
+      <c r="X71" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>555</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>556</v>
+      </c>
+      <c r="J72" t="s">
+        <v>557</v>
+      </c>
+      <c r="K72" t="s">
+        <v>558</v>
+      </c>
+      <c r="L72" t="s">
+        <v>559</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>560</v>
+      </c>
+      <c r="O72" t="s">
+        <v>116</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>496</v>
+      </c>
+      <c r="X72" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>562</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>563</v>
+      </c>
+      <c r="J73" t="s">
+        <v>564</v>
+      </c>
+      <c r="K73" t="s">
+        <v>565</v>
+      </c>
+      <c r="L73" t="s">
+        <v>566</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>496</v>
+      </c>
+      <c r="X73" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_573.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_573.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="894">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r613653606-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1440365</t>
+  </si>
+  <si>
+    <t>613653606</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Five Nights</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights over Labor day weekend.  The hotel is situated in a great spot.  It was never too far to any destination we wanted to visit.  Pretty good breakfast as far as hotels go as well.  I would recommend this hotel to anyone who would want a comfortable stay and not break the budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights over Labor day weekend.  The hotel is situated in a great spot.  It was never too far to any destination we wanted to visit.  Pretty good breakfast as far as hotels go as well.  I would recommend this hotel to anyone who would want a comfortable stay and not break the budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r603494361-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>603494361</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Son’s wedding weekend</t>
+  </si>
+  <si>
+    <t>Nice and clean. Breakfast was average. There was a REALLY bright light right outside our window ( room 205) shining on the side of the building which made it difficult to sleep. We had to hang blankets up and around the window to keep it semi dark. Lights in the bathroom were very dim so it was hard to do make up and hair while getting ready for the wedding. We had to use another family member’s bathroom to see better. Overall, the staff was great, and it was very easily accessible to downtown and all the functions we attended over the weekend. We would stay again! (In a different room, tho’)!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Hotel Manager. at Sleep Inn &amp; Suites, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Nice and clean. Breakfast was average. There was a REALLY bright light right outside our window ( room 205) shining on the side of the building which made it difficult to sleep. We had to hang blankets up and around the window to keep it semi dark. Lights in the bathroom were very dim so it was hard to do make up and hair while getting ready for the wedding. We had to use another family member’s bathroom to see better. Overall, the staff was great, and it was very easily accessible to downtown and all the functions we attended over the weekend. We would stay again! (In a different room, tho’)!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r602479222-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>602479222</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Nothing more, nothing less</t>
+  </si>
+  <si>
+    <t>Hotel is just fine. The bed was way hard for me, but that's personal preference. Front desk staff was friendly. There was very little parking, we had to park behind the hotel near a fence, the area back there looked a little shady.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Hotel is just fine. The bed was way hard for me, but that's personal preference. Front desk staff was friendly. There was very little parking, we had to park behind the hotel near a fence, the area back there looked a little shady.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r598679576-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1440365</t>
-  </si>
-  <si>
     <t>598679576</t>
   </si>
   <si>
@@ -174,16 +261,10 @@
     <t>We visited family in the neighborhood and stayed here. The staff was friendly and helpful, our room was super clean and it was really quiet. We will be returning for another visit. Very convenient to downtown.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded July 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2018</t>
   </si>
   <si>
     <t>We visited family in the neighborhood and stayed here. The staff was friendly and helpful, our room was super clean and it was really quiet. We will be returning for another visit. Very convenient to downtown.More</t>
@@ -204,10 +285,10 @@
     <t>Very happy with this establishment.  Clean rooms, quiet, comfortable beds, great complimentary breakfast, laundry facility, friendly staff and reasonable price.  Will definitely stay here again.  Only regret is that it doesn't have a pool.MoreShow less</t>
   </si>
   <si>
-    <t>sleepinndowntown1, Webmaster at Sleep Inn &amp; Suites, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>sleepinndowntown1, Webmaster at Sleep Inn &amp; Suites, responded to this reviewResponded July 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2018</t>
   </si>
   <si>
     <t>Very happy with this establishment.  Clean rooms, quiet, comfortable beds, great complimentary breakfast, laundry facility, friendly staff and reasonable price.  Will definitely stay here again.  Only regret is that it doesn't have a pool.More</t>
@@ -234,6 +315,51 @@
     <t>Was in town for a couple of Astros games. Only about 10 minutes to the stadium. Room was clean and everything was in working order. Only had breakfast one of the 2 mornings. Eggs were just okay. Only had whole milk available at the time.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r591045200-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591045200</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Excellent location, friendly staff</t>
+  </si>
+  <si>
+    <t>The hotel is within walking distance of the red line Metro, which makes it convenient to go downtown. If you go north about a half mile, there are plenty of good places to eat.  Also easy access to highway 45.The hotel staff is friendly. The rooms are clean and spacious.  Breakfast was good, with eggs, sausage/bacon, biscuits, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The hotel is within walking distance of the red line Metro, which makes it convenient to go downtown. If you go north about a half mile, there are plenty of good places to eat.  Also easy access to highway 45.The hotel staff is friendly. The rooms are clean and spacious.  Breakfast was good, with eggs, sausage/bacon, biscuits, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r590082747-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590082747</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Clean and close to downtown</t>
+  </si>
+  <si>
+    <t>The room was a good price and very clean. The style of the room was modern with flat screen tv, however our remote was malfunctioning half the time. Not a bad deal especially since you get free breakfast as well. The biggest negative was the WiFi which was incredibly slow and we usually don’t have problems with WiFi service when we travel out of town but for some reason this location gave us many difficulties.MoreShow less</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>The room was a good price and very clean. The style of the room was modern with flat screen tv, however our remote was malfunctioning half the time. Not a bad deal especially since you get free breakfast as well. The biggest negative was the WiFi which was incredibly slow and we usually don’t have problems with WiFi service when we travel out of town but for some reason this location gave us many difficulties.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r589351928-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -249,12 +375,6 @@
     <t>This was a great hotel. Great staff and very clean. My wife and daughter loved it. Just a great experience. 200 characters is just a number. It does nit make that big of a difference in rating a hotel. Stop this policyMoreShow less</t>
   </si>
   <si>
-    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded June 29, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 29, 2018</t>
-  </si>
-  <si>
     <t>This was a great hotel. Great staff and very clean. My wife and daughter loved it. Just a great experience. 200 characters is just a number. It does nit make that big of a difference in rating a hotel. Stop this policyMore</t>
   </si>
   <si>
@@ -270,9 +390,6 @@
     <t>This hotel was a last minute choice due to being stranded because of flight issues. It surpassed expectations. - close to airport - shuttle service was a bit late given the chaos of many flights being cancelled but overall, service was very convenient - great service from front desk staff- prompt, helpful - spacious, clean rooms- quiet, safe area - loved the bed- very comfy- nice bathroom, great shower - above average breakfast for hotels in similar price range Overall, was pleasantly surprised with the hotel and room given last minute options.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>This hotel was a last minute choice due to being stranded because of flight issues. It surpassed expectations. - close to airport - shuttle service was a bit late given the chaos of many flights being cancelled but overall, service was very convenient - great service from front desk staff- prompt, helpful - spacious, clean rooms- quiet, safe area - loved the bed- very comfy- nice bathroom, great shower - above average breakfast for hotels in similar price range Overall, was pleasantly surprised with the hotel and room given last minute options.More</t>
   </si>
   <si>
@@ -294,6 +411,57 @@
     <t>Clean and freindly, location on I45 allows for easy travel throughout the downtown area. Free breakfast wasnt bad either!! Had a fridge and coffee maker in room which was nice, but no pool or bar but for clean quiet place to sleep it was great!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r579617265-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579617265</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>WiFi nonexistent and no cell service</t>
+  </si>
+  <si>
+    <t>This hotel was nice, room was clean, etc but since I was here for work, the fact that none of their WiFi networks were operational was problematic. Add to that the fact that I could get no cell signal from inside the building because of the way it was constructed (using both ATT and Verizon) so I had to work in my car in the sketchy parking lot, means I won’t be back here. If you don’t need to work while here I’m sure it’s fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was nice, room was clean, etc but since I was here for work, the fact that none of their WiFi networks were operational was problematic. Add to that the fact that I could get no cell signal from inside the building because of the way it was constructed (using both ATT and Verizon) so I had to work in my car in the sketchy parking lot, means I won’t be back here. If you don’t need to work while here I’m sure it’s fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r578766625-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578766625</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Last minute reservations</t>
+  </si>
+  <si>
+    <t>We had reservations with a different establishment and were NOT pleased, I quickly made new arrangements with Sleep Inn  &amp; Suites. We were so happy when we arrived. The whole place was nice and clean! There were amenities that I required, such as a workout room and guest laundry equipment. Additionally, the room smelled great! (Major bonus in my book.) The staff was friendly and a delight to speak with. We enjoyed the breakfast too! Being so close to the White Oaks Music Hall was also a bonus. I would happily stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We had reservations with a different establishment and were NOT pleased, I quickly made new arrangements with Sleep Inn  &amp; Suites. We were so happy when we arrived. The whole place was nice and clean! There were amenities that I required, such as a workout room and guest laundry equipment. Additionally, the room smelled great! (Major bonus in my book.) The staff was friendly and a delight to speak with. We enjoyed the breakfast too! Being so close to the White Oaks Music Hall was also a bonus. I would happily stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r577112964-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -312,12 +480,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 16, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 16, 2018</t>
-  </si>
-  <si>
     <t>I chose this hotel because my son lives near the Heights in Houston and it was located at an easy-in/easy-out location (which is not always so easy in Houston). The staff was very friendly, helpful and efficient. The hotel was squeeky clean and brightly lit. The gated parking area was safe. The room was spotless and well kept by the cleaning crew. Amenities included workout room and breakfast. Everything seemed to be newly updated and sparkling overall. I would definitely recommend Sleep Inn. I'd recommend it to my mother it was that good!More</t>
   </si>
   <si>
@@ -339,9 +501,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded March 6, 2018</t>
   </si>
   <si>
@@ -366,9 +525,6 @@
     <t>The hotel and the staff were excellent.  The staff were very friendly and helpful.  The parking area was secure but small,  and it was difficult at times to back straight up from the parking lot.  The area itself appeared run down,  but the hotel itself appears new. The breakfast,  while warm, was very similar each day. Dining area was small. Room was extremely comfortable and quiet. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>sleepinndowntown1, Hotel Manager at Sleep Inn &amp; Suites, responded to this reviewResponded February 27, 2018</t>
   </si>
   <si>
@@ -378,6 +534,45 @@
     <t>The hotel and the staff were excellent.  The staff were very friendly and helpful.  The parking area was secure but small,  and it was difficult at times to back straight up from the parking lot.  The area itself appeared run down,  but the hotel itself appears new. The breakfast,  while warm, was very similar each day. Dining area was small. Room was extremely comfortable and quiet. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r562394056-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562394056</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Nice property</t>
+  </si>
+  <si>
+    <t>Great location if you are needing to be close to downtown Houston with out paying a huge amount for a clean, well maintained location. Friendly staff, decent breakfast, close to many great choices for food, both local and national chains are close.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location if you are needing to be close to downtown Houston with out paying a huge amount for a clean, well maintained location. Friendly staff, decent breakfast, close to many great choices for food, both local and national chains are close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r554964156-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554964156</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>Good and bad</t>
+  </si>
+  <si>
+    <t>We stayed three nights at this hotel, located at freeway.  Surrounding neighborhood was not conducive to walking around but the hotel itself was fine.  Desk personnel were friendly and helpful.  We had a king suite with partial room divider.  The room was large but it wasn't really a suite as the room divider was so large.  Also, there are lamps in the room but they are not even close to being bright enough.  The bathroom was updated and very nice.  We heard no noise from freeway or other guest.  Bed and pillows were comfortable and when we figured out the a/c and heat we were happy with temperatures.  The breakfast area was very small and selection was  poor.  The lady working the area seemed sick so we skipped breakfast there 2 days.  I would definitely recommend improving breakfast area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>We stayed three nights at this hotel, located at freeway.  Surrounding neighborhood was not conducive to walking around but the hotel itself was fine.  Desk personnel were friendly and helpful.  We had a king suite with partial room divider.  The room was large but it wasn't really a suite as the room divider was so large.  Also, there are lamps in the room but they are not even close to being bright enough.  The bathroom was updated and very nice.  We heard no noise from freeway or other guest.  Bed and pillows were comfortable and when we figured out the a/c and heat we were happy with temperatures.  The breakfast area was very small and selection was  poor.  The lady working the area seemed sick so we skipped breakfast there 2 days.  I would definitely recommend improving breakfast area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r554042935-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -393,12 +588,6 @@
     <t>The room was clean and average. We were very disappointed by the hot breakfast. The first morning breakfast said it was served until 10:00am, however, all of the hot food was gone when we arrived at 9:30 and we had to specially ask the attendant to mix up some more waffle mix. She reluctantly did so. They were out of almost all of the other breakfast items. The second morning we were there by 8:30 (breakfast was until 9:30) and nearly all of the food was gone again! I asked for some more sausage links and the attendant said that they were frozen and could not be made. The egg and cheese omelette and the tater tots were cold. There was no fruit or yogurt and only a few slices of bread to make toast. The coffee dispenser worked, but the juice machine said “temporarily out of service.”  I was also getting grossed out because the attendant had a nasty cough and I could hear her coughing all over the place in the back. We told the front desk and they apologized, but that didn’t help the situation. MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>The room was clean and average. We were very disappointed by the hot breakfast. The first morning breakfast said it was served until 10:00am, however, all of the hot food was gone when we arrived at 9:30 and we had to specially ask the attendant to mix up some more waffle mix. She reluctantly did so. They were out of almost all of the other breakfast items. The second morning we were there by 8:30 (breakfast was until 9:30) and nearly all of the food was gone again! I asked for some more sausage links and the attendant said that they were frozen and could not be made. The egg and cheese omelette and the tater tots were cold. There was no fruit or yogurt and only a few slices of bread to make toast. The coffee dispenser worked, but the juice machine said “temporarily out of service.”  I was also getting grossed out because the attendant had a nasty cough and I could hear her coughing all over the place in the back. We told the front desk and they apologized, but that didn’t help the situation. More</t>
   </si>
   <si>
@@ -435,6 +624,39 @@
     <t>The room was very clean and roomy. The breakfast could have been better -- there were not enough tables for those who had come for breakfast. The first day some of the food was cold, there was only one type of yogurt offered and only one type of breakfast meat, sausage. On the second day there were two types of meat, sausage and bacon.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r538478428-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538478428</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long weekend </t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable, staff very pleasant, the breakfast so so. Located just minutes from  downtown and either airport.  It would have been nice if there was a convienence or drug close by because the closest one without a car is an uber ride away.  Over all a nice stay.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r538252650-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538252650</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Everything was great</t>
+  </si>
+  <si>
+    <t>Front desk clerk was very friendly, the room was updated and as nice as any room I have stayed at a Marriott Courtyard or Spring Hill Suites, actually better than many of those and the TV had DirecTV with many more channels than Marriott hotels. Very convenient to downtown Houston. I will definitely make this my regular hotel when I'm in Houston.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r538105295-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -465,9 +687,6 @@
     <t>We stayed this past weekend for a concert at White Oak Music Hall.  Only 5 minutes away so super convenient.  Close to downtown and other attractions as well.  The room was clean, the staff was nice and the price was right.  It seems to be recently renovated and still smelled "new".  We would stay here again if we're in the area.</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r537273290-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -483,6 +702,36 @@
     <t>2nd time to stay here for an annual convention.  Minutes from downtown without downtown prices.  Room was clean and comfortable and up to Choice Hotel standards.  Breakfast was so-so...I've had better and options weren't as plentiful.Had to check out early due to a family death, and they refunded my unused night.  Did not expect that, especially since I had pre-paid.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r536921480-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536921480</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a great place to stay in a central location. The rooms were nice and clean and had a mini fridge, which was nice. The breakfast was the usual hotel fare, but the waffle maker was broken. The price was expected for the location. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r536142699-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536142699</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>I stayed for 3 nights on business. the room was clean, the staff was great, nice and helpful. the room it self was a little out dated on the furniture. But overall I would stay again for the price. The front desk staff was really helpful, when I asked about additional items for my room and on food delivery to the hotel.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r535750120-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -528,30 +777,63 @@
     <t>The people at the front counter were helpful and always had a smile on their face. My room was pleasant and updated! While right off 45 south it was very convenient to downtown Houston. There is noise from the road—it lulled me to sleep.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r525447729-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525447729</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Small but its a nice clean place with helpful staff</t>
+  </si>
+  <si>
+    <t>The parking lot is very small with small parking spaces, but workable,  The breakfast is OK at best, I have had much better at other Choice Hotels. Several days, no fruit offered, Bread choices are skimpy, eggs are weird, waffle ingredient have been non existent and the orange juice has come out watery.  The rooms are clean, quiet and comfortable.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r506001683-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506001683</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Close to Downtown</t>
+  </si>
+  <si>
+    <t>The hotel was decent though not in a very good area. They did have gated property with security guard. Room was clean and bed was comfortable enough. It served us well for 1 night. We were attending a concert at the Toyota Center and the location was only about 10-15 min away. It was an inexpensive place to stay but still close enough to where we wanted to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was decent though not in a very good area. They did have gated property with security guard. Room was clean and bed was comfortable enough. It served us well for 1 night. We were attending a concert at the Toyota Center and the location was only about 10-15 min away. It was an inexpensive place to stay but still close enough to where we wanted to go.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r505782697-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>505782697</t>
   </si>
   <si>
-    <t>07/26/2017</t>
-  </si>
-  <si>
     <t>Very clean comfortable hotel</t>
   </si>
   <si>
     <t>We stayed 2 nights. The hotel is very clean throughout. Our room was of good size, clean room and very comfortable beds. The shower was very nice. Breakfast was very good with cereals, hot egg, sausage, hash potato, Toast, waffles, fruit, cakes, yoghurts and drinks. Small gym but good enough. Need to drive to restaurants as nothing nearby; staff gave us lots of advice on where to eat; the room book also suggests dining, attractions etc which was useful to us.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded September 6, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 6, 2017</t>
-  </si>
-  <si>
     <t>We stayed 2 nights. The hotel is very clean throughout. Our room was of good size, clean room and very comfortable beds. The shower was very nice. Breakfast was very good with cereals, hot egg, sausage, hash potato, Toast, waffles, fruit, cakes, yoghurts and drinks. Small gym but good enough. Need to drive to restaurants as nothing nearby; staff gave us lots of advice on where to eat; the room book also suggests dining, attractions etc which was useful to us.More</t>
   </si>
   <si>
@@ -600,6 +882,48 @@
     <t>Very comfortable ,good location . About $8 in Uber into Main st Houston . About 45 minutes drive to Space Centre and Twenty minutes to airport.Good breakfast ,great reception.Not a lot in walking distance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r491636818-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491636818</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Work Related Hotel Stay</t>
+  </si>
+  <si>
+    <t>Absoutely wonderful stay over the course of end of April thru June 7.  Berta and other staff treated us like family.  We were a group of up to 8-10 people.  Nice easy breakfast every morning at 0630.  Eggs, bacon or sausage, and tator tots.  Cereal, youghert, you name it.  Comfortable, CLEAN, and quiet rooms.  Small fridge for the cold stuff.  And wifi as part of the deal.  If your driving thru Houston, TX just do it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Absoutely wonderful stay over the course of end of April thru June 7.  Berta and other staff treated us like family.  We were a group of up to 8-10 people.  Nice easy breakfast every morning at 0630.  Eggs, bacon or sausage, and tator tots.  Cereal, youghert, you name it.  Comfortable, CLEAN, and quiet rooms.  Small fridge for the cold stuff.  And wifi as part of the deal.  If your driving thru Houston, TX just do it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r489233826-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489233826</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>This location is perfect for when we visit our daughter and son-in-law. The bed was comfortable and the air conditioner worked great. The breakfast was good and there was tea and coffee available in the waiting room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>This location is perfect for when we visit our daughter and son-in-law. The bed was comfortable and the air conditioner worked great. The breakfast was good and there was tea and coffee available in the waiting room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r488918585-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -615,12 +939,6 @@
     <t>My fiance' and I got there before check in time and the front desk guy said there wasn't any rooms at the moment but he still went and checked on housekeeping and had one of them clean our room right there and there. Our housekeeper did an amazing job even being rushed or told to hurry. We were very thankful for the fast service and everyone was super nice. Thank you everyone at this location.MoreShow less</t>
   </si>
   <si>
-    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded June 5, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 5, 2017</t>
-  </si>
-  <si>
     <t>My fiance' and I got there before check in time and the front desk guy said there wasn't any rooms at the moment but he still went and checked on housekeeping and had one of them clean our room right there and there. Our housekeeper did an amazing job even being rushed or told to hurry. We were very thankful for the fast service and everyone was super nice. Thank you everyone at this location.More</t>
   </si>
   <si>
@@ -672,6 +990,55 @@
     <t>Stayed overnight. The room was quite big enough. It was clean and well furnished.My bed was a little uncomfortable.The water in the shower was only luke warm.The breakfast was decent. But there were not many choices.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r482795983-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482795983</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Great location, very close to downtown.  Didn't see security in the parking lot like I used to, a little concerned with that, but it is gated and well lit.  Clean and quiet.  Staff always friendly and informative.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location, very close to downtown.  Didn't see security in the parking lot like I used to, a little concerned with that, but it is gated and well lit.  Clean and quiet.  Staff always friendly and informative.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r478581803-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478581803</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel with an amazing staff and great price</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Sleep Inn &amp; Suites.  We had group of 7 families booked for 5-6 nights each.  The hotel looks very nice, recently remodeled.  The located is great – it took us about 15 minutes to get to the George R. Brown Convention Center.  The rooms were a normal size (we did not get any suites), and the beds were very comfortable.  I usually bring my own pillows so can’t personally comment on the pillows, but others in my group called them the half pillows but said there were comfortable just small.  The bathroom had some wonderful touches that other hotels should add: towels rings for the hand towels and a large cubby with shelves that held both my husband’s and my toiletries.  Breakfast was standard hotel breakfast (egg, meat, potato, muffins, bagels, etc.), and the Texas-shaped waffles were a big hit with the kids although we did have to ask for the batter.  The parking lot was a bit small, but we made it work.
+The best part about this hotel was the staff!  They were exceptional, probably the friendliest, most helpful hotel staff I have encountered in a long time – with a big shout-out to Bertia (hope I spelled that correctly), who was amazing.
+The only negative was our first night there when a homeless man (who was either on drugs or had mental issues or both) got into the hotel (before 5 am),...We recently stayed at the Sleep Inn &amp; Suites.  We had group of 7 families booked for 5-6 nights each.  The hotel looks very nice, recently remodeled.  The located is great – it took us about 15 minutes to get to the George R. Brown Convention Center.  The rooms were a normal size (we did not get any suites), and the beds were very comfortable.  I usually bring my own pillows so can’t personally comment on the pillows, but others in my group called them the half pillows but said there were comfortable just small.  The bathroom had some wonderful touches that other hotels should add: towels rings for the hand towels and a large cubby with shelves that held both my husband’s and my toiletries.  Breakfast was standard hotel breakfast (egg, meat, potato, muffins, bagels, etc.), and the Texas-shaped waffles were a big hit with the kids although we did have to ask for the batter.  The parking lot was a bit small, but we made it work.The best part about this hotel was the staff!  They were exceptional, probably the friendliest, most helpful hotel staff I have encountered in a long time – with a big shout-out to Bertia (hope I spelled that correctly), who was amazing.The only negative was our first night there when a homeless man (who was either on drugs or had mental issues or both) got into the hotel (before 5 am), took a fire extinguisher and proceeded to spray down the hallway, elevator, stairs, etc., which set off the fire alarm.  He then tried to break down our door with the fire extinguisher.  Thinking it was either management or the fire department, my husband opened the door, and the guy ran in.  We couldn’t get him out.  Again, the staff was amazing and handled the situation very well.  I’m sorry I didn’t get the name of the young man on duty that night, but he was wonderful!  The police came and took away the man, and the fire department came, checked out the hotel and opened the windows in the hallway to air it out.  The hotel staff started locking the front door at night, and we had no other incidents.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>We recently stayed at the Sleep Inn &amp; Suites.  We had group of 7 families booked for 5-6 nights each.  The hotel looks very nice, recently remodeled.  The located is great – it took us about 15 minutes to get to the George R. Brown Convention Center.  The rooms were a normal size (we did not get any suites), and the beds were very comfortable.  I usually bring my own pillows so can’t personally comment on the pillows, but others in my group called them the half pillows but said there were comfortable just small.  The bathroom had some wonderful touches that other hotels should add: towels rings for the hand towels and a large cubby with shelves that held both my husband’s and my toiletries.  Breakfast was standard hotel breakfast (egg, meat, potato, muffins, bagels, etc.), and the Texas-shaped waffles were a big hit with the kids although we did have to ask for the batter.  The parking lot was a bit small, but we made it work.
+The best part about this hotel was the staff!  They were exceptional, probably the friendliest, most helpful hotel staff I have encountered in a long time – with a big shout-out to Bertia (hope I spelled that correctly), who was amazing.
+The only negative was our first night there when a homeless man (who was either on drugs or had mental issues or both) got into the hotel (before 5 am),...We recently stayed at the Sleep Inn &amp; Suites.  We had group of 7 families booked for 5-6 nights each.  The hotel looks very nice, recently remodeled.  The located is great – it took us about 15 minutes to get to the George R. Brown Convention Center.  The rooms were a normal size (we did not get any suites), and the beds were very comfortable.  I usually bring my own pillows so can’t personally comment on the pillows, but others in my group called them the half pillows but said there were comfortable just small.  The bathroom had some wonderful touches that other hotels should add: towels rings for the hand towels and a large cubby with shelves that held both my husband’s and my toiletries.  Breakfast was standard hotel breakfast (egg, meat, potato, muffins, bagels, etc.), and the Texas-shaped waffles were a big hit with the kids although we did have to ask for the batter.  The parking lot was a bit small, but we made it work.The best part about this hotel was the staff!  They were exceptional, probably the friendliest, most helpful hotel staff I have encountered in a long time – with a big shout-out to Bertia (hope I spelled that correctly), who was amazing.The only negative was our first night there when a homeless man (who was either on drugs or had mental issues or both) got into the hotel (before 5 am), took a fire extinguisher and proceeded to spray down the hallway, elevator, stairs, etc., which set off the fire alarm.  He then tried to break down our door with the fire extinguisher.  Thinking it was either management or the fire department, my husband opened the door, and the guy ran in.  We couldn’t get him out.  Again, the staff was amazing and handled the situation very well.  I’m sorry I didn’t get the name of the young man on duty that night, but he was wonderful!  The police came and took away the man, and the fire department came, checked out the hotel and opened the windows in the hallway to air it out.  The hotel staff started locking the front door at night, and we had no other incidents.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r477952141-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -687,9 +1054,6 @@
     <t>The facility looked new and was in excellent condition. We stayed a total of 4 nights. We chose the hotel because of the location. A couple of complaints, Saturday morning the breakfast was good but on Sunday the hot food was not hot. The warmer was plugged in but the GFCI was tripped, No one was around so I reset it. Glad there was a microwave available. Monday the waffle maker wasn't plugged in so no waffle. I guessed it was only a weekend thing because you had to ask for the waffle batter from an attendant, Monday night our sleep was interrupted by a fire alarm that went off momentarily. The 3rd floor, where we were staying, was full of smoke. We went downstairs where we found the night clerk and what looked like a homeless man. He had set off a fire extinguisher in the 3rd floor hallway. The smoke was just extinguisher output. No fire, so back to bed.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>Sawan P, General Manager at Sleep Inn &amp; Suites, responded to this reviewResponded April 27, 2017</t>
   </si>
   <si>
@@ -741,6 +1105,54 @@
     <t>The rooms are OK.  They are comfortable and clean with TV, air conditioner and a very decent bathroom.They have a very small gym but the static bike is not working properly.  They don't have towels in the gym.Breakfast is very basic.  Enough to survive.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r468669476-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468669476</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing </t>
+  </si>
+  <si>
+    <t>The staff was wonderful and prompt from the moment I walked in. They made sure to check if I was happy with my room. It was peaceful and quiet. My room was very clean. Only issues was  I requested a late checkout for 1pm but they still called me at 11 for checkout. Other than that I will be staying here again for future visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Sawan P, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>The staff was wonderful and prompt from the moment I walked in. They made sure to check if I was happy with my room. It was peaceful and quiet. My room was very clean. Only issues was  I requested a late checkout for 1pm but they still called me at 11 for checkout. Other than that I will be staying here again for future visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r462109153-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462109153</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>Great hospitality. Very clean, close to downtown. Great breakfast. Sofa bed in suite, was very uncomfortable. Staff very helpful. Very close to freeway, but did not hear traffic. A few fast food places nearby. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Great hospitality. Very clean, close to downtown. Great breakfast. Sofa bed in suite, was very uncomfortable. Staff very helpful. Very close to freeway, but did not hear traffic. A few fast food places nearby. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r458469739-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -756,15 +1168,6 @@
     <t>Newly remodeled.  We were here for the Super Bowl.  The suite is very large and had 1 King and 2 fold out couches.  Clean and nice.  Easy parking.All the downtown hotels were booked up, but this hotel was probably better with the huge room and easy parking.NiceMoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
-    <t>Sawan P, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded March 24, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 24, 2017</t>
-  </si>
-  <si>
     <t>Newly remodeled.  We were here for the Super Bowl.  The suite is very large and had 1 King and 2 fold out couches.  Clean and nice.  Easy parking.All the downtown hotels were booked up, but this hotel was probably better with the huge room and easy parking.NiceMore</t>
   </si>
   <si>
@@ -816,6 +1219,36 @@
     <t>Location is excellent.  Just off freeway, but highway noise wasn't a problem.  Hotel backs up to a quaint residential neighborhood that is very quiet.Our suite was large and comfortable, but would have benefited from some overhead lighting or at least an additional floor or table lamp.  Pillow selection could be improved.  They were all foam-filled and too fat for my comfort. Staff were very pleasant and accommodating.  Complimentary breakfast included both hot and cold foods, but not much variety.  No restaurants in easy walking distance.  Overall, very good value.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r445611377-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445611377</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Houston Business Stay</t>
+  </si>
+  <si>
+    <t>Clean and comfortable.  The staff was helpful and opened the breakfast area for me even though it was after hours.  Handful of restaurant choices around the corner.  The fitness room is small but did the trick.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r443898043-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443898043</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Just a small detail</t>
+  </si>
+  <si>
+    <t>Everything was very nice, We loved everything about the room made me feel like home. The only thing we didn't have in our room were waters, and we weren't carrying cash so we couldn't use the vending machines. And I was thirsty Some hotels have waters and drinks inside. Maybe that would be something to think about? Overall it was very nice.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r441153447-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -867,6 +1300,42 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r423347274-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423347274</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Fresh and clean</t>
+  </si>
+  <si>
+    <t>Super clean property in a great spot between airport and downtown.   Neighborhood is highly questionable and hotel is just off I-45, but that doesn't really make a difference.  Parking lot is well lit, feels safe.   Hotel staff very friendly and courteous.  Breakfast generous.  You are 10 mins from anywhere downtown and stadiums, 20 to the airport.  East freeway on and off.  Staying there again in a couple of weeks.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r420812274-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420812274</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable</t>
+  </si>
+  <si>
+    <t>We found the Sleep Inn &amp; Suites to be very clean and comfortable.  The staff, for the most part, was very courteous and helpful.  The only problem we ran into was breakfast on Sunday morning.  We arrived at 9:35 am (it closes at 10:00) and there was one dry little piece of egg left in the chafer.  I kindly asked the girl in the kitchen if she would be bringing out any more eggs and sausage.  The said no.  I questioned why since they went until 10.  She stated that she couldn't make any more because it would just go to waste.  There was also no fruit left....(There were still people coming in....) She was very stern with her answer.  I can see not making a bunch more during the week, but not on the weekend....  But, other than that....everything was great.  GREAT air conditioning!!!  ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>We found the Sleep Inn &amp; Suites to be very clean and comfortable.  The staff, for the most part, was very courteous and helpful.  The only problem we ran into was breakfast on Sunday morning.  We arrived at 9:35 am (it closes at 10:00) and there was one dry little piece of egg left in the chafer.  I kindly asked the girl in the kitchen if she would be bringing out any more eggs and sausage.  The said no.  I questioned why since they went until 10.  She stated that she couldn't make any more because it would just go to waste.  There was also no fruit left....(There were still people coming in....) She was very stern with her answer.  I can see not making a bunch more during the week, but not on the weekend....  But, other than that....everything was great.  GREAT air conditioning!!!  ;)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r417913213-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -882,9 +1351,6 @@
     <t xml:space="preserve">We loved our one night stay at the Sleep Inn. Although it is next to the highway its location is a convenient short drive to Downtown. Berta at the front desk made our check in a delight and the hotel should be proud of her friendliness and customer service. The rooms were clean, comfortable and spacious and the breakfast looked substantial. We left too early to have a hot breakfast but we were let in to take coffee and muffins before our early flight. Thanks! </t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r414063083-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -918,24 +1384,51 @@
     <t>I enjoyed my stay. When we walked in the lobby it had a very pleasant aroma. The staff was very friendly. The breakfast could have been a little better (just my opinion). But of course there is a jack n the box right across the street. Overall a great experience. The pillows were a little small. The rooms were clean.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r399875418-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399875418</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Fine low service hotel</t>
+  </si>
+  <si>
+    <t>WIfe and I stayed there during visit for weekend. Overall very good. The biggest negative was the time it took to get hot water to room, I timed it, with bathtub running full out, 3 minutes 5 seconds...wasted a lot of water...breakfast was ok, fresh apples and bananas, eggs....well scrambled, and a bit below ok.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r398160942-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398160942</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean room</t>
+  </si>
+  <si>
+    <t>Our two-queen room on the first floor was thankfully quiet.  Clean and comfy, though tight, as is typical these days in a lot of the chain hotels.  The front desk staff was great, and very friendly.  Google Maps had a hard time getting us there though, not sure why.  We ended up coming in the back entrance through a residential neighborhood.  Very close to downtown and Minute Maid Park.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r398157992-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
     <t>398157992</t>
   </si>
   <si>
-    <t>07/27/2016</t>
-  </si>
-  <si>
     <t>Baseball game</t>
   </si>
   <si>
     <t>We really enjoyed our stay. The staff was very friendly, the room was comfortable and clean.  The breakfast was more than we expected. It was not in the best neighborhood but was convenient to the highway and Minute Maid stadium.</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r395319781-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1477,45 @@
     <t>So glad there is a mid priced hotel close to downtown.  We carry a few work items in our truck, we stay here because it is gated and security in the evening.  Great staff, rooms and breakfast!!  Parking lot is tight, but manageable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r390678852-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390678852</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Baseball visit in Houston</t>
+  </si>
+  <si>
+    <t>Great experience, close to downtown and the things we went to see. The hotel was right off the freeway and was secure I felt. Very clean and a helpful staff. The dining room has modern furnishings and was very spacious. we stayed on the top floor and there was no noise inside or out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great experience, close to downtown and the things we went to see. The hotel was right off the freeway and was secure I felt. Very clean and a helpful staff. The dining room has modern furnishings and was very spacious. we stayed on the top floor and there was no noise inside or out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r388542127-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388542127</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Great Business Hotel Location</t>
+  </si>
+  <si>
+    <t>A Great location near Houston Downtown and highway I-45. small hotel, Clean place. The room was comfortable and well maintained. A table and chair to work with high speed internet. clean linen and comfortable mattress. They have fitness center but I didn't used it. free continental breakfast in the morning.HIGHLY RECOMMENDED..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>A Great location near Houston Downtown and highway I-45. small hotel, Clean place. The room was comfortable and well maintained. A table and chair to work with high speed internet. clean linen and comfortable mattress. They have fitness center but I didn't used it. free continental breakfast in the morning.HIGHLY RECOMMENDED..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r387635503-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -999,9 +1531,6 @@
     <t>The area is in the process of revitalization.  A security guard is on hand in the evenings.  I felt safe inside but not sure about the parking lot or the blocks around it.  Not many restaurants nearby other than a few fast food.  The room was comfortable and well maintained.  A free continental breakfast in the morning that was kept well stocked.MoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>KRUPALI S, Public Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded July 1, 2016</t>
   </si>
   <si>
@@ -1041,6 +1570,60 @@
     <t>Clean room; safe neighborhood; hot breakfast; attentive staff; driving to/from Brown Convention Center was easy; we drove streets behind and found them safe. Both my wife and I plan to return to this place in the future. Good pricing.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r373913986-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373913986</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Excellent Rooms includes hot breakfast!</t>
+  </si>
+  <si>
+    <t>Beautiful decor, granite shower and countertops, brand new. 10 minutes to downtown, right off I-45. Staff was pleasant and helpful. Price was right for the 4 rooms our family needed for a wedding. Breakfast until 9:30a with a nice variety including make your own waffles, scrambled eggs, bacon, sausage or typical light fare of cereals, yogurt and fruit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Beautiful decor, granite shower and countertops, brand new. 10 minutes to downtown, right off I-45. Staff was pleasant and helpful. Price was right for the 4 rooms our family needed for a wedding. Breakfast until 9:30a with a nice variety including make your own waffles, scrambled eggs, bacon, sausage or typical light fare of cereals, yogurt and fruit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r370636098-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370636098</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Very clean place, great service</t>
+  </si>
+  <si>
+    <t>We stayed here while attending a convention at the George Brown Convention Center downtown.  It's only a 10-15 minute ride to save $150 a night and I don't think the rooms downtown are any better.  Very clean - it looks almost new!  Both wired and wireless internet available, nice beds, flat screen TV, refrigerator, microwave and a big chair to sit in to relax.  The breakfast was nice - some days we had tortillas with eggs, bacon and sausage.  There was even salsa!  Coffee was plentiful and good.  The happy hour nights, you could pick up a beer on the way to your room.  Wifi worked great.  You should note that cellular service inside the rooms was one or no bar - must be thick walls.  Many folks went outside or to the end of a hall next to a window to use their cell phones.  It's next to the Houston Food Bank and the neighborhood may not be the best, but never felt in danger while on property.The owner was there every morning asking the guests if everything was OK.  It always was.A very good place, in my humble opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here while attending a convention at the George Brown Convention Center downtown.  It's only a 10-15 minute ride to save $150 a night and I don't think the rooms downtown are any better.  Very clean - it looks almost new!  Both wired and wireless internet available, nice beds, flat screen TV, refrigerator, microwave and a big chair to sit in to relax.  The breakfast was nice - some days we had tortillas with eggs, bacon and sausage.  There was even salsa!  Coffee was plentiful and good.  The happy hour nights, you could pick up a beer on the way to your room.  Wifi worked great.  You should note that cellular service inside the rooms was one or no bar - must be thick walls.  Many folks went outside or to the end of a hall next to a window to use their cell phones.  It's next to the Houston Food Bank and the neighborhood may not be the best, but never felt in danger while on property.The owner was there every morning asking the guests if everything was OK.  It always was.A very good place, in my humble opinion.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r367022620-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1056,15 +1639,6 @@
     <t>We were one of three couples in town for a baseball game. Small property.  Our suites were among the best hotel rooms I've ever stayed in.  Huge, nicely appointed, refrigerator, microwave and coffee maker. Away from the elevator as asked.  Free breakfast daily. Small but reasonable fitness center. Some confusion as to which days their happy hours were held; we never hit the right day.  Disappointed that the online pictures showed a pool, but there was none. The property was 6 miles north of downtown Houston and since we did not have a car, we needed to take a taxi or Uber each time we wanted to travel.   Other than that, I would highly recommend.MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
-    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 9, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 9, 2016</t>
-  </si>
-  <si>
     <t>We were one of three couples in town for a baseball game. Small property.  Our suites were among the best hotel rooms I've ever stayed in.  Huge, nicely appointed, refrigerator, microwave and coffee maker. Away from the elevator as asked.  Free breakfast daily. Small but reasonable fitness center. Some confusion as to which days their happy hours were held; we never hit the right day.  Disappointed that the online pictures showed a pool, but there was none. The property was 6 miles north of downtown Houston and since we did not have a car, we needed to take a taxi or Uber each time we wanted to travel.   Other than that, I would highly recommend.More</t>
   </si>
   <si>
@@ -1119,6 +1693,48 @@
     <t>The biggest problem was with our reservation, which was the fault of the Choice Hotels reservations person I talked to. The Choice Hotels website was down when I went to make this reservation, so I called their 800 number instead. I had requested a non-smoking, handicapped room on the first floor. I asked twice to confirm that the room was a handicapped room. But when I arrived, there was nothing in the reservation about being on the first floor or about having a handicapped room. Although the front desk person who checked us in was able to get us a first floor room, it was not a handicapped room. We had to make do with that room for two of our five nights here. Thursday, the morning desk clerk was supposed to leave a message for the evening desk clerk to try to move us into a handicapped room, but, when I asked the night desk clerk, the morning one didn't leave any note. Friday night, the night desk clerk was finally able to move us into a handicapped room and helped us move our stuff from the one room to the other. Kudos to her! Other things. The parking lot is very small. Rooms were mostly clean and beds were comfortable. However, the first room we were in had two beds and, when we pulled back the covers on one bed, the sheet had a brown stain from someone's...The biggest problem was with our reservation, which was the fault of the Choice Hotels reservations person I talked to. The Choice Hotels website was down when I went to make this reservation, so I called their 800 number instead. I had requested a non-smoking, handicapped room on the first floor. I asked twice to confirm that the room was a handicapped room. But when I arrived, there was nothing in the reservation about being on the first floor or about having a handicapped room. Although the front desk person who checked us in was able to get us a first floor room, it was not a handicapped room. We had to make do with that room for two of our five nights here. Thursday, the morning desk clerk was supposed to leave a message for the evening desk clerk to try to move us into a handicapped room, but, when I asked the night desk clerk, the morning one didn't leave any note. Friday night, the night desk clerk was finally able to move us into a handicapped room and helped us move our stuff from the one room to the other. Kudos to her! Other things. The parking lot is very small. Rooms were mostly clean and beds were comfortable. However, the first room we were in had two beds and, when we pulled back the covers on one bed, the sheet had a brown stain from someone's rear end. This sheet should have been changed. The internet worked fine. They had an excellent breakfast. Overall, not too bad, but make sure your reservation is correct first.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r348385647-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348385647</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Nice room and friendly staff</t>
+  </si>
+  <si>
+    <t>Our rooms was really nice, so much better than Sleep inn at Baton Rouge we had (yeah yeah, we know these are franchise place) - our room was nice in size (we had 5 big suitcases and babybed and had no problem moving around!) and our bathroom was good.Staff helped us when ever needed and was really friendly.Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Our rooms was really nice, so much better than Sleep inn at Baton Rouge we had (yeah yeah, we know these are franchise place) - our room was nice in size (we had 5 big suitcases and babybed and had no problem moving around!) and our bathroom was good.Staff helped us when ever needed and was really friendly.Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r347765850-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347765850</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>I was a little worried about the neighborhood before we got there. I was also worried about noise from the interstate. I felt safe at the hotel and while driving nearby. It is very convenient to downtown. I am a light sleeper and my room faced the interstate. It was very quiet, and I was not disturbed by noise at all. All areas of the hotel are very well-maintained and very clean. The shower was a walk-in, not a bathtub, which was very nice. The mattresses and pillows were not comfortable, and I woke up with a backache every morning. The air conditioner was wonderfully cold and was controlled with a digital thermostat on the wall. The breakfast area was very clean and had an assortment of hot and cold foods. It was nice to have bacon and sausage available. The waffles were very good, however, you are not allowed to make them yourself. I am not accustomed to this and usually do it myself. If anyone approached the waffle maker, the attendant made sure to tell them that she would make the waffle. This sounds nice, but the attendant hovered to the point that it made us uncomfortable. She was not friendly, and she watched us, and everyone else who walked in, like a hawk. At one point she even told a gentleman to close the cover on the eggs/bacon after his grandchild got food, but he had not...I was a little worried about the neighborhood before we got there. I was also worried about noise from the interstate. I felt safe at the hotel and while driving nearby. It is very convenient to downtown. I am a light sleeper and my room faced the interstate. It was very quiet, and I was not disturbed by noise at all. All areas of the hotel are very well-maintained and very clean. The shower was a walk-in, not a bathtub, which was very nice. The mattresses and pillows were not comfortable, and I woke up with a backache every morning. The air conditioner was wonderfully cold and was controlled with a digital thermostat on the wall. The breakfast area was very clean and had an assortment of hot and cold foods. It was nice to have bacon and sausage available. The waffles were very good, however, you are not allowed to make them yourself. I am not accustomed to this and usually do it myself. If anyone approached the waffle maker, the attendant made sure to tell them that she would make the waffle. This sounds nice, but the attendant hovered to the point that it made us uncomfortable. She was not friendly, and she watched us, and everyone else who walked in, like a hawk. At one point she even told a gentleman to close the cover on the eggs/bacon after his grandchild got food, but he had not yet dished out his own food. Also, make sure if you want breakfast to get there well before the closing time. The attendant starts picking up early and doesn't replenish food. Fifteen minutes before the end of breakfast, she told me that there was not any more whole milk. Perhaps some lessons on customer service for the attendant are in order. Everyone else was nice. The wifi worked very well. I would stay here again if I were in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was a little worried about the neighborhood before we got there. I was also worried about noise from the interstate. I felt safe at the hotel and while driving nearby. It is very convenient to downtown. I am a light sleeper and my room faced the interstate. It was very quiet, and I was not disturbed by noise at all. All areas of the hotel are very well-maintained and very clean. The shower was a walk-in, not a bathtub, which was very nice. The mattresses and pillows were not comfortable, and I woke up with a backache every morning. The air conditioner was wonderfully cold and was controlled with a digital thermostat on the wall. The breakfast area was very clean and had an assortment of hot and cold foods. It was nice to have bacon and sausage available. The waffles were very good, however, you are not allowed to make them yourself. I am not accustomed to this and usually do it myself. If anyone approached the waffle maker, the attendant made sure to tell them that she would make the waffle. This sounds nice, but the attendant hovered to the point that it made us uncomfortable. She was not friendly, and she watched us, and everyone else who walked in, like a hawk. At one point she even told a gentleman to close the cover on the eggs/bacon after his grandchild got food, but he had not...I was a little worried about the neighborhood before we got there. I was also worried about noise from the interstate. I felt safe at the hotel and while driving nearby. It is very convenient to downtown. I am a light sleeper and my room faced the interstate. It was very quiet, and I was not disturbed by noise at all. All areas of the hotel are very well-maintained and very clean. The shower was a walk-in, not a bathtub, which was very nice. The mattresses and pillows were not comfortable, and I woke up with a backache every morning. The air conditioner was wonderfully cold and was controlled with a digital thermostat on the wall. The breakfast area was very clean and had an assortment of hot and cold foods. It was nice to have bacon and sausage available. The waffles were very good, however, you are not allowed to make them yourself. I am not accustomed to this and usually do it myself. If anyone approached the waffle maker, the attendant made sure to tell them that she would make the waffle. This sounds nice, but the attendant hovered to the point that it made us uncomfortable. She was not friendly, and she watched us, and everyone else who walked in, like a hawk. At one point she even told a gentleman to close the cover on the eggs/bacon after his grandchild got food, but he had not yet dished out his own food. Also, make sure if you want breakfast to get there well before the closing time. The attendant starts picking up early and doesn't replenish food. Fifteen minutes before the end of breakfast, she told me that there was not any more whole milk. Perhaps some lessons on customer service for the attendant are in order. Everyone else was nice. The wifi worked very well. I would stay here again if I were in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r340753518-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1810,48 @@
     <t>My daughter and I were on a business trip to Houston and needed to stay near downtown.  I usually stay at Choice hotels and this one did not disappoint.  Staff was friendly and accommodating.  Free Breakfast as usual along with a  newspaper.  Very close to downtown.  Highly recommend this Sleep Inn.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r332529344-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332529344</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Convenient hotel to downtown</t>
+  </si>
+  <si>
+    <t>and since it right off of I45 to can get to the other Houston attractions with no problem. The rooms are well maintained.there is a refrigerator and microwave.  The morning breakfasts the hotel is done well, they keep the food fresh. There is fruit, oatmeal, eggs, bacon sausage, different breads, yogurts, Apple and orange juices, coffee and of course fresh waffle (shape of Texas).MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>and since it right off of I45 to can get to the other Houston attractions with no problem. The rooms are well maintained.there is a refrigerator and microwave.  The morning breakfasts the hotel is done well, they keep the food fresh. There is fruit, oatmeal, eggs, bacon sausage, different breads, yogurts, Apple and orange juices, coffee and of course fresh waffle (shape of Texas).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r328271672-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328271672</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>What a delightful experience!  Best of our trip to Texas!</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Sleep Inn and what a great experience it was!!!!  It could not have been cleaner, the staff could not have been nicer, and the rooms and entire hotel could not have been more attractive or more sleep-friendly!!! They provide a free, hot breakfast (eggs, sausage, waffles, etc.), free parking and free WIFI. They have done a marvelous job with this hotel -- and it really works!  Handily located on the feeder road to I-45 which made it so easy to get right into downtown Houston.  Located in a modest neighborhood which adds to the charm of this hotel; try Skinny Rita's down the street for great Mexican food and margaritas!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Sleep Inn and what a great experience it was!!!!  It could not have been cleaner, the staff could not have been nicer, and the rooms and entire hotel could not have been more attractive or more sleep-friendly!!! They provide a free, hot breakfast (eggs, sausage, waffles, etc.), free parking and free WIFI. They have done a marvelous job with this hotel -- and it really works!  Handily located on the feeder road to I-45 which made it so easy to get right into downtown Houston.  Located in a modest neighborhood which adds to the charm of this hotel; try Skinny Rita's down the street for great Mexican food and margaritas!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r313333736-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1266,6 +1924,51 @@
     <t>Fridge, clean.  Worked for us.  First time, but we come to Houston often and will do again.  Rate is less than you'd pay for most  Holiday Inn Express' in the area -- and comparable and in some cases better.  Only took about 30 minutes in rush hour traffic to get to MD Anderson.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r291509317-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291509317</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>skip breakfast</t>
+  </si>
+  <si>
+    <t>The hotel was very good.  Staff helpful and friendly. Room was clean,comfortable and COOL.  The breakfast was not was it was touted to be by other reviews.  We skipped it and ate at  a good restaurant close by.  There are good eating places within half mile of the hotel.  Ask the desk clerk.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>The hotel was very good.  Staff helpful and friendly. Room was clean,comfortable and COOL.  The breakfast was not was it was touted to be by other reviews.  We skipped it and ate at  a good restaurant close by.  There are good eating places within half mile of the hotel.  Ask the desk clerk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r283898584-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283898584</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Excellent service, Great stay!! Highly recommend!</t>
+  </si>
+  <si>
+    <t>So we're going to the 'stro's game and we get into town a little early. Check-in is at 3 but we wanna check in early. I call and speak to Maria (Hhiiii Maria). She's very pleasant and accomodates me with an early check-in (awesome). We get there early check in, drop off our stuff,make it to our game with plenty of time (just like we hoped).  Party till we're tired come back shower...sleep...wake up. Hot breakfast in the morning! Not just cereal and bread people...I'm talking about HOT BREAKFAST. Eggs, Bacon, Hash browns, juice and Hot coffee. Very nice! Rose was our official Texas size waffle concierge. Thanks Rose! I stay at a lot of hotels and lots of times I don't really comment but I really have to give credit where it's due. I'm impressed. Great stay, great everything! Thank you our trip was a great success and you helped with that! I almost forgot to mention... Bbyyyee Maria.MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>So we're going to the 'stro's game and we get into town a little early. Check-in is at 3 but we wanna check in early. I call and speak to Maria (Hhiiii Maria). She's very pleasant and accomodates me with an early check-in (awesome). We get there early check in, drop off our stuff,make it to our game with plenty of time (just like we hoped).  Party till we're tired come back shower...sleep...wake up. Hot breakfast in the morning! Not just cereal and bread people...I'm talking about HOT BREAKFAST. Eggs, Bacon, Hash browns, juice and Hot coffee. Very nice! Rose was our official Texas size waffle concierge. Thanks Rose! I stay at a lot of hotels and lots of times I don't really comment but I really have to give credit where it's due. I'm impressed. Great stay, great everything! Thank you our trip was a great success and you helped with that! I almost forgot to mention... Bbyyyee Maria.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r275163427-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1335,6 +2038,57 @@
     <t>First time I ever stayed at a SLEEP INN hotel and I was very happy with the experience the saff was very friendly and happy to make your stay pleasant,on arrival they even give you a little goody bag. The room was clean and comfy and well provided for. A few restaurants were very close by to walk to. We also got a great rate last minute from Hotels.com.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r267747219-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267747219</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>What a gem for a Sleep Inn</t>
+  </si>
+  <si>
+    <t>I traveled from Tampa, FL to Houston for the weekend of April 17-19th and chose this Sleep Inn, Little did I realize that this property is beautiful, everything at this property is kept up and has no age to it whatsoever, I was impressed that everything is modern. I backpacked the entire trip and had no problems walking around the area, with that said we only walked to the metro rail in the mornings, it was about a 20 minute walk through a deteriorated part of town.  I want to compliment Oviedo who was the Guest Service Agent at our check-in, who was great with us offering recommendations and who upholds great service. The staff was also friendly in the morning that the breakfast attendant also fetched me a ziploc bag for my bus money! I was recommended before I arrived to use Uber in Houston but I only used it once, the cost from the hotel to downtown with Uber is about $15 but if you're in downtown take the 9 Line north and it will drop you off at the corner of Freeway and North Main Street. The breakfast area was great as well! the breakfast was always there to start our day off right! Houston was a great visit and this hotel was one of the reasons our adventure was memorable.MoreShow less</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>I traveled from Tampa, FL to Houston for the weekend of April 17-19th and chose this Sleep Inn, Little did I realize that this property is beautiful, everything at this property is kept up and has no age to it whatsoever, I was impressed that everything is modern. I backpacked the entire trip and had no problems walking around the area, with that said we only walked to the metro rail in the mornings, it was about a 20 minute walk through a deteriorated part of town.  I want to compliment Oviedo who was the Guest Service Agent at our check-in, who was great with us offering recommendations and who upholds great service. The staff was also friendly in the morning that the breakfast attendant also fetched me a ziploc bag for my bus money! I was recommended before I arrived to use Uber in Houston but I only used it once, the cost from the hotel to downtown with Uber is about $15 but if you're in downtown take the 9 Line north and it will drop you off at the corner of Freeway and North Main Street. The breakfast area was great as well! the breakfast was always there to start our day off right! Houston was a great visit and this hotel was one of the reasons our adventure was memorable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r260374725-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260374725</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>My Favorite hotel in Houston</t>
+  </si>
+  <si>
+    <t>I want to start by saying, this is one of my favorite hotels in Houston. I really should have posted this review way earlier. I have stayed in multiple times as well as recommended my coworkers to stay here as well. The front desk here is awesome. Super super high speed Internet. Standing showers instead of bathtubs. Great location right off the highway and close to downtown. The carpet is clean enough for me to walk around on. The only downside I have found is that the business computer in the front runs really slow and that they charge for printing. The main reason why i keep coming back is that every front desk clerk I have met here have been well and beyond nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>KRUPALI S, Director of Sales at Sleep Inn &amp; Suites, responded to this reviewResponded April 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2015</t>
+  </si>
+  <si>
+    <t>I want to start by saying, this is one of my favorite hotels in Houston. I really should have posted this review way earlier. I have stayed in multiple times as well as recommended my coworkers to stay here as well. The front desk here is awesome. Super super high speed Internet. Standing showers instead of bathtubs. Great location right off the highway and close to downtown. The carpet is clean enough for me to walk around on. The only downside I have found is that the business computer in the front runs really slow and that they charge for printing. The main reason why i keep coming back is that every front desk clerk I have met here have been well and beyond nice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r260208145-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1353,12 +2107,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>KRUPALI S, Director of Sales at Sleep Inn &amp; Suites, responded to this reviewResponded April 9, 2015</t>
-  </si>
-  <si>
-    <t>Responded April 9, 2015</t>
-  </si>
-  <si>
     <t>From check-in to check out, this little gem was a treat!  We were greeted with a little goodies bag containing water and chips and a huge smile.  The lobby and public areas were immaculate and smelled like a new property.  Our room was clean, big and well appointed.  I must admit I was a bit hesitant when we arrived (as a former Houston resident, I knew the area wasn't the best) but the hotel quickly put that to rest.  The location is very convenient for downtown activities and with a make the block maneuver you can pull right onto the freeway.  Will definitely be staying here again.More</t>
   </si>
   <si>
@@ -1377,9 +2125,6 @@
     <t>I have stayed at this motel many times without having problems. On the one occasion I had a complaint they immediately switched my room without a question.There are a few good restaurants on Airline Street near the motel.MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>Nikita K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded November 24, 2014</t>
   </si>
   <si>
@@ -1404,6 +2149,48 @@
     <t>This  is a New Hotel,  with a big rooms  very comfortable Beds , high speed Internet ..  and  good Breakfast,  the location is good,  little far away of  Houston Centre,  but if you in car or  walk just few feet's to take the Bus is OK ...  I no give you 5 excellent rating,  because the location is little far away,  but doesn't matter the hotel is really nice,  And we expected in our stay  the ladies attending the breakfast  sometimes little  smile but they are very serious all the times like ( no talk with me ) however everything was great..  Recommended..</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r233098470-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233098470</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>A fine hotel nestled near the city!</t>
+  </si>
+  <si>
+    <t>The area around the hotel seems sketchy so as I was driving in I was questionable of the positive reviews I read.  However, once I pulled into the parking lot, while a very tiny lot, is a well lit and feels pretty secured.  The staff woman who greeted me was really kind and the hotel itself is kept very clean and very modern.  The room was large and very clean.  I noticed some other posts saying it smelled and such, but I had no experience like that.  I really enjoyed the stay here, though it was brief and just an "in and out" situation... I really do recommend this place, it's very cozy and the all the staff I enjoy encountered were fantastic.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>The area around the hotel seems sketchy so as I was driving in I was questionable of the positive reviews I read.  However, once I pulled into the parking lot, while a very tiny lot, is a well lit and feels pretty secured.  The staff woman who greeted me was really kind and the hotel itself is kept very clean and very modern.  The room was large and very clean.  I noticed some other posts saying it smelled and such, but I had no experience like that.  I really enjoyed the stay here, though it was brief and just an "in and out" situation... I really do recommend this place, it's very cozy and the all the staff I enjoy encountered were fantastic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r214835048-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214835048</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Great Stay, Until After The Stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in May for a business trip. The stay was fine. We weren't looking for anything fancy, just a clean place. Breakfast in the morning was a nice addition. Our stay was fine. We ALWAYS stay at Choice Hotels and have never had a poor experience. Same situation here.The problems started AFTER we left the hotel. I noticed an issue with the payment on my June (one month after the stay) credit card statement. I tried to contact the hotel manager at all times of the day for a week and even got zero response when I left my contact information for him/her to call me back. I eventually called Choice Hotels Customer service (who were A+ by the way) and even they cannot get in contact with the hotel manager after 2 weeks of trying.Severe lack of communication from hotel management.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in May for a business trip. The stay was fine. We weren't looking for anything fancy, just a clean place. Breakfast in the morning was a nice addition. Our stay was fine. We ALWAYS stay at Choice Hotels and have never had a poor experience. Same situation here.The problems started AFTER we left the hotel. I noticed an issue with the payment on my June (one month after the stay) credit card statement. I tried to contact the hotel manager at all times of the day for a week and even got zero response when I left my contact information for him/her to call me back. I eventually called Choice Hotels Customer service (who were A+ by the way) and even they cannot get in contact with the hotel manager after 2 weeks of trying.Severe lack of communication from hotel management.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r209144424-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1437,9 +2224,6 @@
     <t>I spent two nights here during the week of a massive convention when hotels were hard to find. I was hesitant at first based on the reviews and the fact that it only mustered two stars. The hotel is well located on Hwy 45 within the 610 loop, which means you can get just about anywhere in the downtown area within 15 to 20 minutes. I was able to get from the hotel to the Reliant Arena in south Houston in less than 30 minutes. The rooms were surprisingly clean, well maintained, newly remodeled with tasteful decor, and very comfortable. The staff were friendly, and they hosted a 6pm "happy hour" with free beer every day I was there. The complimentary breakfast was decent, all things considered. Bacon, eggs, sausage, assorted pastries, waffles, yogurt, fresh fruit, coffee and juice. Nothing to really complain about there. The only two things that seemed odd to me: 1) the neighborhood around the hotel is in a state of transition… some nice homes next to some old run down places.. 2) the smell as you enter the lobby reminded me of an Asian market.. not exactly inviting. Otherwise, I really liked the hotel. So much so that I will stay here again whenever I'm in town.MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>Nikita K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded May 26, 2014</t>
   </si>
   <si>
@@ -1464,6 +2248,60 @@
     <t>This hotel was extremely smelly.  The rooms, the elevator and the lobby all smelled terrible.  We tried to book a hotel in Houston 3 weeks prior to our trip and everything was sold out due to a convention in town.  This was a last resort.  It was very overpriced and not a good value for the money.  Our room with taxes was $250.00.  I would definitely not recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r201489589-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201489589</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Overnighted here whilst in Houston. Hotel was reasonably clean and the rooms were well equipped and comfortable. Not much choice for food in the local area so unless you want Maccas you'll have to drive. Biggest thing that aggravated me about this hotel was the address it gives, DO NOT PUT 2475 N I-45 into your GPS, it will try to stop you in the middle of the highway and you'll end up driving around for 30 minutes getting frustrated, try putting in MELWOOD st and once you're on it, drive until just after you hit VINCENT. Save yourself 30mins, a lot of heartache and having to cross 5 lanes of Highway traffic in 0.2miles in order to take an exit!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Furrukh K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded April 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2014</t>
+  </si>
+  <si>
+    <t>Overnighted here whilst in Houston. Hotel was reasonably clean and the rooms were well equipped and comfortable. Not much choice for food in the local area so unless you want Maccas you'll have to drive. Biggest thing that aggravated me about this hotel was the address it gives, DO NOT PUT 2475 N I-45 into your GPS, it will try to stop you in the middle of the highway and you'll end up driving around for 30 minutes getting frustrated, try putting in MELWOOD st and once you're on it, drive until just after you hit VINCENT. Save yourself 30mins, a lot of heartache and having to cross 5 lanes of Highway traffic in 0.2miles in order to take an exit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r199249455-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199249455</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>Worth the Price</t>
+  </si>
+  <si>
+    <t>I booked this place well in advance of our trip to Houston ($90/night) and was well worth it. The staff were very friendly and attentive. The room was clean, the bed comfortable, mini fridge, microwave oven came in handy. Breakfast was good with limited choices, but, we didn't expect more than that. This hotel is close to downtown. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Furrukh K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>I booked this place well in advance of our trip to Houston ($90/night) and was well worth it. The staff were very friendly and attentive. The room was clean, the bed comfortable, mini fridge, microwave oven came in handy. Breakfast was good with limited choices, but, we didn't expect more than that. This hotel is close to downtown. I would definitely stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r190463166-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +2374,51 @@
     <t>Hotel room was comfortable, clean, and up to date. The location seemed sketchy to me at first considering the immediate surrounding areas. My room was very quiet and I had a good nights sleep.Parking was free but very limited. There was a sign in the lobby apologizing for the parking - so they must be working on renovations.Very affordable to be so close to downtown. I easily saved $150/night at this location. There are not any restaurants that you can walk to nor would you want to probably.There was not an attendant at the desk when I checked out at 6:00am. I rang the bell and waited... Makes you wonder about overall security.I don't know if I'd bring my family here but I'd use this location for business travel again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r181882650-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181882650</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Nice place and good location</t>
+  </si>
+  <si>
+    <t>We had a very nice stay at this hotel. The room is smaller than some of the Choice Hotels, but very clean and quiet, even though it was next to the Interstate. The bathroom was large and had a nice wide entry. Overall we enjoyed our stay.Minera provided a nice welcome and a goodbye as she helped conclude our stay the next day. Breakfast was the same for choice hotels, adequate and a good variety.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>We had a very nice stay at this hotel. The room is smaller than some of the Choice Hotels, but very clean and quiet, even though it was next to the Interstate. The bathroom was large and had a nice wide entry. Overall we enjoyed our stay.Minera provided a nice welcome and a goodbye as she helped conclude our stay the next day. Breakfast was the same for choice hotels, adequate and a good variety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r159576246-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159576246</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Will return.</t>
+  </si>
+  <si>
+    <t>Recently moved out of Houston for work. Came back for some last minute moving finalizations. Stayed at this fairly new hotel and I loved it. Rooms were incredible. The flat screen tvs were awesome. The breakfast was on point. I was surpised at some of the breakfast items they offered. They also offer coffee all day which was helpful since I was in and out of the hotel a lot during my two day stay. All in all, the rate was acceptable, the employees were friendly, and the rooms were nice/comfortable. I recommend this hotel and I will be staying here during my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Furrukh K, Public Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded December 9, 2013</t>
+  </si>
+  <si>
+    <t>Recently moved out of Houston for work. Came back for some last minute moving finalizations. Stayed at this fairly new hotel and I loved it. Rooms were incredible. The flat screen tvs were awesome. The breakfast was on point. I was surpised at some of the breakfast items they offered. They also offer coffee all day which was helpful since I was in and out of the hotel a lot during my two day stay. All in all, the rate was acceptable, the employees were friendly, and the rooms were nice/comfortable. I recommend this hotel and I will be staying here during my next visit.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r157123459-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1569,9 +2452,6 @@
     <t>I just stayed at this hotel on April 4-6th, for three nights. Was in town to visit family and tour the city. To be honest, it was a wonderful place to stay. The staff was very well mannered and extremely kind to their guests. The front desk agents were very helpful when we needed anything. From printing out directions for us to giving us a few extra towels to personally coming to our third floor room to give us extra coffee packets, they made no delay in satisfying our requests. It's like we were on their VIP list. What I loved most about this hotel, though, is the location! RIGHT OFF the freeway; easy in, easy out. Although you'll need a taxi or a car to get to most places; we planned ahead and rented a car while we were in town. The rental car and the location of the hotel made our numerous trips to downtown pretty quick considering the normal traffic in downtown Houston.  We stayed in a double-bed room. Even though there were four of us for two nights, the rooms were pretty spacious. The flat screen TV was awesome just because, in my experience, a lot of hotels don't offer expensive, flat screens in their rooms. The breakfast was excellent. They had a wide variety of breakfast choices from waffles to eggs to bagels to muffins plus more. And the quality of the items were great;...I just stayed at this hotel on April 4-6th, for three nights. Was in town to visit family and tour the city. To be honest, it was a wonderful place to stay. The staff was very well mannered and extremely kind to their guests. The front desk agents were very helpful when we needed anything. From printing out directions for us to giving us a few extra towels to personally coming to our third floor room to give us extra coffee packets, they made no delay in satisfying our requests. It's like we were on their VIP list. What I loved most about this hotel, though, is the location! RIGHT OFF the freeway; easy in, easy out. Although you'll need a taxi or a car to get to most places; we planned ahead and rented a car while we were in town. The rental car and the location of the hotel made our numerous trips to downtown pretty quick considering the normal traffic in downtown Houston.  We stayed in a double-bed room. Even though there were four of us for two nights, the rooms were pretty spacious. The flat screen TV was awesome just because, in my experience, a lot of hotels don't offer expensive, flat screens in their rooms. The breakfast was excellent. They had a wide variety of breakfast choices from waffles to eggs to bagels to muffins plus more. And the quality of the items were great; something you don't normally see at other hotels. I am coming back to Houston for business in a few weeks and definitely plan on staying here again. I definitely recommend this hotel to anyone who is looking for a place to stay in that area and even if you are not looking in that specific area, I still recommend it. You won't regret it. Until next time people. Thanks for reading :)MoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>I just stayed at this hotel on April 4-6th, for three nights. Was in town to visit family and tour the city. To be honest, it was a wonderful place to stay. The staff was very well mannered and extremely kind to their guests. The front desk agents were very helpful when we needed anything. From printing out directions for us to giving us a few extra towels to personally coming to our third floor room to give us extra coffee packets, they made no delay in satisfying our requests. It's like we were on their VIP list. What I loved most about this hotel, though, is the location! RIGHT OFF the freeway; easy in, easy out. Although you'll need a taxi or a car to get to most places; we planned ahead and rented a car while we were in town. The rental car and the location of the hotel made our numerous trips to downtown pretty quick considering the normal traffic in downtown Houston.  We stayed in a double-bed room. Even though there were four of us for two nights, the rooms were pretty spacious. The flat screen TV was awesome just because, in my experience, a lot of hotels don't offer expensive, flat screens in their rooms. The breakfast was excellent. They had a wide variety of breakfast choices from waffles to eggs to bagels to muffins plus more. And the quality of the items were great;...I just stayed at this hotel on April 4-6th, for three nights. Was in town to visit family and tour the city. To be honest, it was a wonderful place to stay. The staff was very well mannered and extremely kind to their guests. The front desk agents were very helpful when we needed anything. From printing out directions for us to giving us a few extra towels to personally coming to our third floor room to give us extra coffee packets, they made no delay in satisfying our requests. It's like we were on their VIP list. What I loved most about this hotel, though, is the location! RIGHT OFF the freeway; easy in, easy out. Although you'll need a taxi or a car to get to most places; we planned ahead and rented a car while we were in town. The rental car and the location of the hotel made our numerous trips to downtown pretty quick considering the normal traffic in downtown Houston.  We stayed in a double-bed room. Even though there were four of us for two nights, the rooms were pretty spacious. The flat screen TV was awesome just because, in my experience, a lot of hotels don't offer expensive, flat screens in their rooms. The breakfast was excellent. They had a wide variety of breakfast choices from waffles to eggs to bagels to muffins plus more. And the quality of the items were great; something you don't normally see at other hotels. I am coming back to Houston for business in a few weeks and definitely plan on staying here again. I definitely recommend this hotel to anyone who is looking for a place to stay in that area and even if you are not looking in that specific area, I still recommend it. You won't regret it. Until next time people. Thanks for reading :)More</t>
   </si>
   <si>
@@ -1593,6 +2473,54 @@
     <t>Definitely the place I will be staying during my next trip to Houston. Made a weekend trip to Houston from San Antonio. Checked in with ease; front desk agent was very helpful and kind. Rooms weren't too big, but definitely an appropriate size for two people. Location was extremely convenient! Right off the freeway and very close to downtown. Great breakfast service as well! Only complaint I had was there were no more luggage carts available when we checked out as we packed heavy. They only had two carts which other guests were using. Other than that, I definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r148079053-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148079053</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>Rude management</t>
+  </si>
+  <si>
+    <t>I had an employee I booked at this hotel on 12-21-12.  I booked with his Corporate Lodging number and had to fax it to them because he didn't have his card with him.   I booked it directly with the hotel and at the time of booking they never mentioned needing a credit card for incidentals. So at 11:30pm that night I get woke up by the employee cause they would not let him check in w/o a credit card for incidentals and would not take cash to hold for this purpose either.  I called the hotel and told them they said nothing about needing that when I booked the room and they eventually let him check in. He said the rooms were clean and nice but I have to say the management was not the friendliest.  Also when he checked out the next morning they would not give him a receipt.  It was processed through CLC Lodging but normally the hotels give them a receipt so they can turn it in with their travel receipts.  The hotel needs to tell people they need a credit card for incidentals when reservation is made not when the people are trying to get checked in and be friendlier to their guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I had an employee I booked at this hotel on 12-21-12.  I booked with his Corporate Lodging number and had to fax it to them because he didn't have his card with him.   I booked it directly with the hotel and at the time of booking they never mentioned needing a credit card for incidentals. So at 11:30pm that night I get woke up by the employee cause they would not let him check in w/o a credit card for incidentals and would not take cash to hold for this purpose either.  I called the hotel and told them they said nothing about needing that when I booked the room and they eventually let him check in. He said the rooms were clean and nice but I have to say the management was not the friendliest.  Also when he checked out the next morning they would not give him a receipt.  It was processed through CLC Lodging but normally the hotels give them a receipt so they can turn it in with their travel receipts.  The hotel needs to tell people they need a credit card for incidentals when reservation is made not when the people are trying to get checked in and be friendlier to their guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r144764025-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144764025</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>Recently Renovated</t>
+  </si>
+  <si>
+    <t>Very pleasant stay! Two queen sized beds with four pillows per bed. Wifi, computer desk, lots of places to plug in electronics, flat screen tv, fridge, microwave, small coffee maker. Clean, clean, clean and the staff were very attentive. Breakfast was good, featuring make-it-yourself waffles shaped like Texas. Now that was different.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Furrukh K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded December 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2013</t>
+  </si>
+  <si>
+    <t>Very pleasant stay! Two queen sized beds with four pillows per bed. Wifi, computer desk, lots of places to plug in electronics, flat screen tv, fridge, microwave, small coffee maker. Clean, clean, clean and the staff were very attentive. Breakfast was good, featuring make-it-yourself waffles shaped like Texas. Now that was different.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r140201993-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1632,12 +2560,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Furrukh K, Guest Relations Manager at Sleep Inn &amp; Suites, responded to this reviewResponded December 10, 2013</t>
-  </si>
-  <si>
-    <t>Responded December 10, 2013</t>
-  </si>
-  <si>
     <t>First time I stayed here it was around average. Stay just last week and the room I had was totally remodeled. New bed. Flat screen TV. New desk, fridge. Loved it!! Breakfast was good and there was a lot of room. I didn't use the pool so I don't know about that. Good location as it's close to downtown. It is right off the interstate so the traffic noise is a bit loud at times.More</t>
   </si>
   <si>
@@ -1662,6 +2584,45 @@
     <t>I ended up here after a mess created by my travel agency at other hotel downtown. The hotel is right next to the I-45, so it's almost impossible to get lost finding it. We payed for this hotel $100 for 3 people, two queen size beds. The room included beds, high-speed WiFi internet, a fridge, flat screen TV with cable, a microwave oven, a very comfortable 1 seat sofa, and a desk. The room was very clean. The bathroom was quite neat, spacious and clean. The girl at the front desk was very nice and polite. We checked-in at about midnight. She helped us find driving directions, and informed us we also had breakfast included. The next morning we woke up and headed to the breakfast room. We believed it would be a normal continental breakfast, which would include coffee and bread, however, we were surprised when we found out that the breakfat was actually assorted. There were omelets, hot dogs, orange and apple juice, coffee, bread, three different types of cereal, waffles, etc. The breakfast was quite well. My mom had to check her e-mail, and while my sister and I have iPods, she had no computer. The girl at the desk offered the bussiness center, in which we managed to make some phone calls to our travel agency and my mom could check her e-mail. After that, we headed downtown. The hotel is really close to Houston's Downtown,...I ended up here after a mess created by my travel agency at other hotel downtown. The hotel is right next to the I-45, so it's almost impossible to get lost finding it. We payed for this hotel $100 for 3 people, two queen size beds. The room included beds, high-speed WiFi internet, a fridge, flat screen TV with cable, a microwave oven, a very comfortable 1 seat sofa, and a desk. The room was very clean. The bathroom was quite neat, spacious and clean. The girl at the front desk was very nice and polite. We checked-in at about midnight. She helped us find driving directions, and informed us we also had breakfast included. The next morning we woke up and headed to the breakfast room. We believed it would be a normal continental breakfast, which would include coffee and bread, however, we were surprised when we found out that the breakfat was actually assorted. There were omelets, hot dogs, orange and apple juice, coffee, bread, three different types of cereal, waffles, etc. The breakfast was quite well. My mom had to check her e-mail, and while my sister and I have iPods, she had no computer. The girl at the desk offered the bussiness center, in which we managed to make some phone calls to our travel agency and my mom could check her e-mail. After that, we headed downtown. The hotel is really close to Houston's Downtown, about 10 minutes. After that night we managed to solve the problem with out travel agency and stayed at other hotel, nevertheless, my family and I agreed that, eventhough the other hotel is from a very important brand of hotels, the room and service was even better at Sleep Inn than at the other hotel. I really recommend this as an option for Houston travelers.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r118156465-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118156465</t>
+  </si>
+  <si>
+    <t>09/15/2011</t>
+  </si>
+  <si>
+    <t>Great for downtown access.</t>
+  </si>
+  <si>
+    <t>Stayed here for a baseball game.   Very easy to get downtown.  Neighborhood could be better but no incidents.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a baseball game.   Very easy to get downtown.  Neighborhood could be better but no incidents.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r117985684-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117985684</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Beautiful Quiet Hoetl</t>
+  </si>
+  <si>
+    <t>Hotel was located right off the Freeway, the rooms are beautiful and spacious, and the staff are friendly.  Defiantly will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Hotel was located right off the Freeway, the rooms are beautiful and spacious, and the staff are friendly.  Defiantly will stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r82641853-Sleep_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -1720,6 +2681,27 @@
   </si>
   <si>
     <t>My parents stayed here for a week while visiting us. They were very pleased with the accomodation. Good comfortable rooms, large breakfasts and convenient to our house in the Heights. Normally they stay at one of the local B&amp;Bs but have found those to be less of a quality for the price lately and this Sleep Inn turned out to be a good option. You definitely need a car or taxi to get anywhere from the hotel and I wouldn't recommend a lot of night walking but it is fine during the day and is easy on/easy off for the freeway just north of downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1440365-r59186104-Sleep_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59186104</t>
+  </si>
+  <si>
+    <t>03/21/2010</t>
+  </si>
+  <si>
+    <t>Great looking building and rooms, clean, 3 mi north of downtown</t>
+  </si>
+  <si>
+    <t>I thought the hotel was good because 1) the price was reasonable, 2) there was a free breakfast including cereal, milk, belgium waffles, bagels, eggs, fruit, coffee, etc. (Nothing too fancy, but definitely nice, and easy way to start the day.), 3) the rooms were very clean and 4) the hotel itself was clean and very new looking. Only down side is that you need a car or to get a cab, because it was 3 mi north of downtown, where everything is. However, you can take super shuttle from the airport to this hotel, and we just walked on one 70 degree day from our hotel to downtown. I would recommend this hotel to a friend, and I'd stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I thought the hotel was good because 1) the price was reasonable, 2) there was a free breakfast including cereal, milk, belgium waffles, bagels, eggs, fruit, coffee, etc. (Nothing too fancy, but definitely nice, and easy way to start the day.), 3) the rooms were very clean and 4) the hotel itself was clean and very new looking. Only down side is that you need a car or to get a cab, because it was 3 mi north of downtown, where everything is. However, you can take super shuttle from the airport to this hotel, and we just walked on one 70 degree day from our hotel to downtown. I would recommend this hotel to a friend, and I'd stay there again.More</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +3236,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2315,10 +3297,10 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
@@ -2333,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2355,7 +3337,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2364,43 +3346,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2416,7 +3404,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2425,22 +3413,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -2455,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2477,7 +3465,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2486,25 +3474,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2516,13 +3504,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -2538,7 +3526,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2547,22 +3535,22 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
@@ -2577,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -2599,7 +3587,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2608,31 +3596,33 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
         <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2642,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2664,7 +3654,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2673,25 +3663,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2703,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -2725,7 +3715,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2734,25 +3724,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2764,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
         <v>119</v>
@@ -2798,22 +3788,22 @@
         <v>121</v>
       </c>
       <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
         <v>122</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>123</v>
       </c>
-      <c r="L11" t="s">
-        <v>124</v>
-      </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2824,10 +3814,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" t="s">
+        <v>112</v>
+      </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2843,34 +3837,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
         <v>128</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>129</v>
       </c>
-      <c r="J12" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" t="s">
-        <v>132</v>
-      </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2881,10 +3875,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2900,54 +3898,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>136</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>137</v>
       </c>
-      <c r="L13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>139</v>
+      </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2963,7 +3959,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2972,30 +3968,28 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>5</v>
@@ -3007,10 +4001,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -3026,7 +4024,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3035,34 +4033,32 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>126</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -3070,10 +4066,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
+        <v>139</v>
+      </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -3089,7 +4089,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3098,45 +4098,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -3152,7 +4150,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3161,45 +4159,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -3215,52 +4211,52 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>160</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>161</v>
-      </c>
-      <c r="J18" t="s">
-        <v>162</v>
-      </c>
-      <c r="K18" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" t="s">
-        <v>164</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>149</v>
-      </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -3276,7 +4272,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3285,27 +4281,29 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>3</v>
@@ -3313,7 +4311,7 @@
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3321,7 +4319,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -3337,7 +4335,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3346,47 +4344,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="O20" t="s">
-        <v>126</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>176</v>
-      </c>
-      <c r="X20" t="s">
-        <v>177</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -3402,7 +4392,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3411,25 +4401,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3440,14 +4430,10 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>176</v>
-      </c>
-      <c r="X21" t="s">
-        <v>177</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -3463,7 +4449,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3472,43 +4458,45 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>126</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>191</v>
-      </c>
-      <c r="X22" t="s">
-        <v>192</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
@@ -3524,7 +4512,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3533,47 +4521,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>199</v>
-      </c>
-      <c r="X23" t="s">
-        <v>200</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -3589,7 +4569,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3598,32 +4578,34 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
-        <v>116</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3631,14 +4613,10 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>207</v>
-      </c>
-      <c r="X24" t="s">
-        <v>208</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
@@ -3654,7 +4632,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3663,47 +4641,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>215</v>
-      </c>
-      <c r="X25" t="s">
-        <v>216</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
         <v>217</v>
       </c>
@@ -3742,20 +4716,22 @@
         <v>222</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="O26" t="s">
-        <v>126</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3763,14 +4739,10 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>224</v>
-      </c>
-      <c r="X26" t="s">
-        <v>225</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
@@ -3786,56 +4758,54 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
         <v>227</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>228</v>
-      </c>
-      <c r="J27" t="s">
-        <v>229</v>
-      </c>
-      <c r="K27" t="s">
-        <v>230</v>
-      </c>
-      <c r="L27" t="s">
-        <v>231</v>
-      </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="n">
         <v>4</v>
       </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>232</v>
-      </c>
-      <c r="X27" t="s">
-        <v>233</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
@@ -3851,7 +4821,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3860,47 +4830,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
         <v>232</v>
-      </c>
-      <c r="X28" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="29">
@@ -3916,7 +4878,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3925,49 +4887,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>247</v>
-      </c>
-      <c r="X29" t="s">
-        <v>248</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
@@ -3983,7 +4939,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3992,34 +4948,34 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="J30" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -4027,14 +4983,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>256</v>
-      </c>
-      <c r="X30" t="s">
-        <v>257</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
@@ -4050,7 +5002,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4059,47 +5011,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="O31" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>256</v>
-      </c>
-      <c r="X31" t="s">
-        <v>257</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32">
@@ -4115,7 +5063,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4124,30 +5072,30 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="O32" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
@@ -4160,7 +5108,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
@@ -4176,7 +5124,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4185,32 +5133,32 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="O33" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -4221,7 +5169,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
@@ -4237,7 +5185,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4246,45 +5194,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>116</v>
-      </c>
-      <c r="P34" t="n">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
         <v>3</v>
       </c>
-      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>265</v>
+      </c>
+      <c r="X34" t="s">
+        <v>266</v>
+      </c>
       <c r="Y34" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
@@ -4300,7 +5252,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4309,39 +5261,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>265</v>
+      </c>
+      <c r="X35" t="s">
+        <v>266</v>
+      </c>
       <c r="Y35" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36">
@@ -4357,7 +5317,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4366,45 +5326,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="O36" t="s">
-        <v>107</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>265</v>
+      </c>
+      <c r="X36" t="s">
+        <v>266</v>
+      </c>
       <c r="Y36" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
@@ -4420,7 +5378,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4429,43 +5387,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="J37" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>285</v>
+      </c>
+      <c r="X37" t="s">
+        <v>286</v>
+      </c>
       <c r="Y37" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38">
@@ -4481,7 +5439,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4490,39 +5448,47 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="J38" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="K38" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>285</v>
+      </c>
+      <c r="X38" t="s">
+        <v>286</v>
+      </c>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39">
@@ -4538,7 +5504,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4547,49 +5513,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="J39" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K39" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="O39" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="X39" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Y39" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
@@ -4605,7 +5565,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4614,25 +5574,25 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="J40" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="O40" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4648,13 +5608,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="X40" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="Y40" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
@@ -4670,7 +5630,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4679,47 +5639,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="J41" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="O41" t="s">
-        <v>116</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="X41" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="Y41" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42">
@@ -4735,7 +5695,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4744,47 +5704,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="J42" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="O42" t="s">
         <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="X42" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Y42" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43">
@@ -4800,7 +5762,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4809,33 +5771,33 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="J43" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K43" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="O43" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4845,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="X43" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y43" t="s">
         <v>329</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="44">
@@ -4867,7 +5829,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4876,43 +5838,49 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="J44" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K44" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="X44" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="Y44" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45">
@@ -4928,7 +5896,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4937,31 +5905,31 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="J45" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="K45" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="O45" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
@@ -4971,13 +5939,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="Y45" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46">
@@ -4993,7 +5961,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5002,47 +5970,47 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="J46" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="K46" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="O46" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
         <v>4</v>
       </c>
       <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="X46" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="Y46" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47">
@@ -5058,7 +6026,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5067,43 +6035,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J47" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K47" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="X47" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="Y47" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48">
@@ -5119,7 +6091,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5128,25 +6100,25 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="J48" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5158,13 +6130,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="X48" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="Y48" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49">
@@ -5180,7 +6152,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5189,49 +6161,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="J49" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="K49" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="X49" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="Y49" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50">
@@ -5247,7 +6213,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5256,43 +6222,49 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="J50" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="K50" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="L50" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="O50" t="s">
         <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="X50" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="Y50" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51">
@@ -5308,7 +6280,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5317,43 +6289,49 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="J51" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="K51" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="L51" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="O51" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="X51" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="Y51" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52">
@@ -5369,7 +6347,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5378,39 +6356,47 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="J52" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="K52" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+      <c r="N52" t="s">
+        <v>397</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="X52" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="Y52" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53">
@@ -5426,7 +6412,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5435,47 +6421,45 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="J53" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="K53" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="L53" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="P53" t="s"/>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
       <c r="S53" t="n">
         <v>5</v>
       </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>422</v>
-      </c>
-      <c r="X53" t="s">
-        <v>423</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54">
@@ -5491,7 +6475,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5500,47 +6484,39 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="J54" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="K54" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
-      <c r="R54" t="n">
-        <v>3</v>
-      </c>
+      <c r="R54" t="s"/>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>1</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>430</v>
-      </c>
-      <c r="X54" t="s">
-        <v>431</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55">
@@ -5556,7 +6532,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5565,34 +6541,32 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="J55" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="O55" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
       <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
         <v>5</v>
@@ -5600,14 +6574,10 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>430</v>
-      </c>
-      <c r="X55" t="s">
-        <v>431</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56">
@@ -5623,7 +6593,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5632,32 +6602,32 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="J56" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="P56" t="s"/>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
         <v>5</v>
@@ -5665,14 +6635,10 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>445</v>
-      </c>
-      <c r="X56" t="s">
-        <v>446</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57">
@@ -5688,7 +6654,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5697,49 +6663,45 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="J57" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="K57" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="O57" t="s">
-        <v>116</v>
-      </c>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
       <c r="S57" t="n">
         <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>454</v>
-      </c>
-      <c r="X57" t="s">
-        <v>455</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58">
@@ -5755,7 +6717,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5764,37 +6726,37 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="J58" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="K58" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="O58" t="s">
-        <v>126</v>
-      </c>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5802,7 +6764,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59">
@@ -5818,7 +6780,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5827,41 +6789,35 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="J59" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="K59" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="O59" t="s">
-        <v>116</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
         <v>5</v>
       </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5869,7 +6825,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60">
@@ -5885,7 +6841,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5894,53 +6850,39 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="J60" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="K60" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="O60" t="s">
-        <v>116</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>4</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>474</v>
-      </c>
-      <c r="X60" t="s">
-        <v>475</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61">
@@ -5956,7 +6898,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5965,53 +6907,45 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="J61" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="K61" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="O61" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s">
-        <v>474</v>
-      </c>
-      <c r="X61" t="s">
-        <v>475</v>
-      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62">
@@ -6027,7 +6961,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6036,43 +6970,43 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="J62" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="K62" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="L62" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="O62" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>488</v>
-      </c>
-      <c r="X62" t="s">
-        <v>489</v>
-      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63">
@@ -6088,7 +7022,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6097,34 +7031,34 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="J63" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
-      <c r="P63" t="n">
-        <v>4</v>
-      </c>
+      <c r="N63" t="s">
+        <v>459</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
       <c r="Q63" t="n">
         <v>4</v>
       </c>
       <c r="R63" t="n">
         <v>4</v>
       </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
         <v>4</v>
@@ -6132,14 +7066,10 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>496</v>
-      </c>
-      <c r="X63" t="s">
-        <v>497</v>
-      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64">
@@ -6155,7 +7085,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6164,43 +7094,43 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="J64" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="K64" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="L64" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="O64" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P64" t="s"/>
-      <c r="Q64" t="s"/>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
       <c r="R64" t="s"/>
       <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>496</v>
-      </c>
-      <c r="X64" t="s">
-        <v>497</v>
-      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65">
@@ -6216,7 +7146,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6225,53 +7155,39 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="J65" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="K65" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="L65" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="O65" t="s">
         <v>53</v>
       </c>
-      <c r="P65" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
-      <c r="R65" t="n">
-        <v>5</v>
-      </c>
-      <c r="S65" t="n">
-        <v>4</v>
-      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
-        <v>496</v>
-      </c>
-      <c r="X65" t="s">
-        <v>497</v>
-      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66">
@@ -6287,7 +7203,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6296,53 +7212,49 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="J66" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="K66" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="L66" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>517</v>
+        <v>459</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="P66" t="s"/>
       <c r="Q66" t="n">
-        <v>5</v>
-      </c>
-      <c r="R66" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R66" t="s"/>
       <c r="S66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="X66" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="Y66" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67">
@@ -6358,7 +7270,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6367,38 +7279,32 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="J67" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="K67" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="L67" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="O67" t="s">
-        <v>126</v>
-      </c>
-      <c r="P67" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>4</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
       <c r="R67" t="n">
         <v>5</v>
       </c>
-      <c r="S67" t="n">
-        <v>5</v>
-      </c>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
         <v>5</v>
@@ -6407,13 +7313,13 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="X67" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="Y67" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68">
@@ -6429,7 +7335,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6438,32 +7344,28 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="J68" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="K68" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="L68" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>530</v>
+        <v>459</v>
       </c>
       <c r="O68" t="s">
         <v>53</v>
       </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>5</v>
-      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
       <c r="R68" t="n">
         <v>5</v>
       </c>
@@ -6478,13 +7380,13 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="X68" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="Y68" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69">
@@ -6500,7 +7402,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6509,25 +7411,25 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>533</v>
+        <v>492</v>
       </c>
       <c r="J69" t="s">
-        <v>534</v>
+        <v>493</v>
       </c>
       <c r="K69" t="s">
-        <v>535</v>
+        <v>494</v>
       </c>
       <c r="L69" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="O69" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6535,27 +7437,23 @@
       <c r="Q69" t="n">
         <v>5</v>
       </c>
-      <c r="R69" t="n">
-        <v>5</v>
-      </c>
-      <c r="S69" t="n">
-        <v>5</v>
-      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
       <c r="X69" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="Y69" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70">
@@ -6571,7 +7469,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6580,53 +7478,47 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="J70" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="K70" t="s">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="L70" t="s">
-        <v>545</v>
+        <v>502</v>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="P70" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>5</v>
-      </c>
-      <c r="R70" t="n">
-        <v>4</v>
-      </c>
-      <c r="S70" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="X70" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="Y70" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71">
@@ -6642,7 +7534,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6651,53 +7543,47 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>549</v>
+        <v>507</v>
       </c>
       <c r="J71" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K71" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="L71" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="O71" t="s">
         <v>53</v>
       </c>
       <c r="P71" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>4</v>
-      </c>
-      <c r="R71" t="n">
-        <v>5</v>
-      </c>
-      <c r="S71" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="X71" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="Y71" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72">
@@ -6713,7 +7599,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6722,53 +7608,49 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>556</v>
+        <v>512</v>
       </c>
       <c r="J72" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="K72" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="L72" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>560</v>
+        <v>496</v>
       </c>
       <c r="O72" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
       <c r="R72" t="n">
-        <v>2</v>
-      </c>
-      <c r="S72" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="X72" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="Y72" t="s">
-        <v>561</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73">
@@ -6784,7 +7666,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6793,49 +7675,3365 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
       <c r="J73" t="s">
-        <v>564</v>
+        <v>518</v>
       </c>
       <c r="K73" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="L73" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="M73" t="n">
-        <v>3</v>
-      </c>
-      <c r="N73" t="s"/>
-      <c r="O73" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>521</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
       <c r="P73" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>3</v>
-      </c>
-      <c r="R73" t="n">
-        <v>3</v>
-      </c>
-      <c r="S73" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>522</v>
+      </c>
+      <c r="X73" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>525</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>526</v>
+      </c>
+      <c r="J74" t="s">
+        <v>527</v>
+      </c>
+      <c r="K74" t="s">
+        <v>528</v>
+      </c>
+      <c r="L74" t="s">
+        <v>529</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>530</v>
+      </c>
+      <c r="O74" t="s">
+        <v>137</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
         <v>3</v>
       </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="s">
-        <v>496</v>
-      </c>
-      <c r="X73" t="s">
-        <v>497</v>
-      </c>
-      <c r="Y73" t="s">
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>531</v>
+      </c>
+      <c r="X74" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>534</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>535</v>
+      </c>
+      <c r="J75" t="s">
+        <v>536</v>
+      </c>
+      <c r="K75" t="s">
+        <v>537</v>
+      </c>
+      <c r="L75" t="s">
+        <v>538</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>530</v>
+      </c>
+      <c r="O75" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>531</v>
+      </c>
+      <c r="X75" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>540</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>541</v>
+      </c>
+      <c r="J76" t="s">
+        <v>542</v>
+      </c>
+      <c r="K76" t="s">
+        <v>543</v>
+      </c>
+      <c r="L76" t="s">
+        <v>544</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>545</v>
+      </c>
+      <c r="O76" t="s">
+        <v>146</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>546</v>
+      </c>
+      <c r="X76" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>549</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>550</v>
+      </c>
+      <c r="J77" t="s">
+        <v>551</v>
+      </c>
+      <c r="K77" t="s">
+        <v>552</v>
+      </c>
+      <c r="L77" t="s">
+        <v>553</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>545</v>
+      </c>
+      <c r="O77" t="s">
+        <v>137</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>554</v>
+      </c>
+      <c r="X77" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>557</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>558</v>
+      </c>
+      <c r="J78" t="s">
+        <v>559</v>
+      </c>
+      <c r="K78" t="s">
+        <v>560</v>
+      </c>
+      <c r="L78" t="s">
+        <v>561</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>545</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>562</v>
+      </c>
+      <c r="X78" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>565</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>566</v>
+      </c>
+      <c r="J79" t="s">
         <v>567</v>
+      </c>
+      <c r="K79" t="s">
+        <v>568</v>
+      </c>
+      <c r="L79" t="s">
+        <v>569</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>545</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>562</v>
+      </c>
+      <c r="X79" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>571</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>572</v>
+      </c>
+      <c r="J80" t="s">
+        <v>573</v>
+      </c>
+      <c r="K80" t="s">
+        <v>574</v>
+      </c>
+      <c r="L80" t="s">
+        <v>575</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>576</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>577</v>
+      </c>
+      <c r="X80" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>580</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>581</v>
+      </c>
+      <c r="J81" t="s">
+        <v>582</v>
+      </c>
+      <c r="K81" t="s">
+        <v>583</v>
+      </c>
+      <c r="L81" t="s">
+        <v>584</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>585</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>586</v>
+      </c>
+      <c r="X81" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>589</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>590</v>
+      </c>
+      <c r="J82" t="s">
+        <v>591</v>
+      </c>
+      <c r="K82" t="s">
+        <v>592</v>
+      </c>
+      <c r="L82" t="s">
+        <v>593</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>594</v>
+      </c>
+      <c r="O82" t="s">
+        <v>137</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>586</v>
+      </c>
+      <c r="X82" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>596</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>597</v>
+      </c>
+      <c r="J83" t="s">
+        <v>598</v>
+      </c>
+      <c r="K83" t="s">
+        <v>599</v>
+      </c>
+      <c r="L83" t="s">
+        <v>600</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>594</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>601</v>
+      </c>
+      <c r="X83" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>604</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>605</v>
+      </c>
+      <c r="J84" t="s">
+        <v>606</v>
+      </c>
+      <c r="K84" t="s">
+        <v>607</v>
+      </c>
+      <c r="L84" t="s">
+        <v>608</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>585</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>601</v>
+      </c>
+      <c r="X84" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>610</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>611</v>
+      </c>
+      <c r="J85" t="s">
+        <v>612</v>
+      </c>
+      <c r="K85" t="s">
+        <v>613</v>
+      </c>
+      <c r="L85" t="s">
+        <v>614</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>615</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>616</v>
+      </c>
+      <c r="X85" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>619</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>620</v>
+      </c>
+      <c r="J86" t="s">
+        <v>621</v>
+      </c>
+      <c r="K86" t="s">
+        <v>622</v>
+      </c>
+      <c r="L86" t="s">
+        <v>623</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>624</v>
+      </c>
+      <c r="O86" t="s">
+        <v>137</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>625</v>
+      </c>
+      <c r="X86" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>628</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>629</v>
+      </c>
+      <c r="J87" t="s">
+        <v>630</v>
+      </c>
+      <c r="K87" t="s">
+        <v>631</v>
+      </c>
+      <c r="L87" t="s">
+        <v>632</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>625</v>
+      </c>
+      <c r="X87" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>634</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>635</v>
+      </c>
+      <c r="J88" t="s">
+        <v>636</v>
+      </c>
+      <c r="K88" t="s">
+        <v>637</v>
+      </c>
+      <c r="L88" t="s">
+        <v>638</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>639</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>625</v>
+      </c>
+      <c r="X88" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>641</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>642</v>
+      </c>
+      <c r="J89" t="s">
+        <v>643</v>
+      </c>
+      <c r="K89" t="s">
+        <v>644</v>
+      </c>
+      <c r="L89" t="s">
+        <v>645</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>646</v>
+      </c>
+      <c r="X89" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>649</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>650</v>
+      </c>
+      <c r="J90" t="s">
+        <v>651</v>
+      </c>
+      <c r="K90" t="s">
+        <v>652</v>
+      </c>
+      <c r="L90" t="s">
+        <v>653</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>654</v>
+      </c>
+      <c r="O90" t="s">
+        <v>137</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>655</v>
+      </c>
+      <c r="X90" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>658</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>659</v>
+      </c>
+      <c r="J91" t="s">
+        <v>660</v>
+      </c>
+      <c r="K91" t="s">
+        <v>661</v>
+      </c>
+      <c r="L91" t="s">
+        <v>662</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>654</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>663</v>
+      </c>
+      <c r="X91" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>666</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>667</v>
+      </c>
+      <c r="J92" t="s">
+        <v>660</v>
+      </c>
+      <c r="K92" t="s">
+        <v>668</v>
+      </c>
+      <c r="L92" t="s">
+        <v>669</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>670</v>
+      </c>
+      <c r="O92" t="s">
+        <v>146</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>663</v>
+      </c>
+      <c r="X92" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>672</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>673</v>
+      </c>
+      <c r="J93" t="s">
+        <v>674</v>
+      </c>
+      <c r="K93" t="s">
+        <v>675</v>
+      </c>
+      <c r="L93" t="s">
+        <v>676</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>670</v>
+      </c>
+      <c r="O93" t="s">
+        <v>146</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>677</v>
+      </c>
+      <c r="X93" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>680</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>681</v>
+      </c>
+      <c r="J94" t="s">
+        <v>682</v>
+      </c>
+      <c r="K94" t="s">
+        <v>683</v>
+      </c>
+      <c r="L94" t="s">
+        <v>684</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>685</v>
+      </c>
+      <c r="O94" t="s">
+        <v>137</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>686</v>
+      </c>
+      <c r="X94" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>689</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>690</v>
+      </c>
+      <c r="J95" t="s">
+        <v>691</v>
+      </c>
+      <c r="K95" t="s">
+        <v>692</v>
+      </c>
+      <c r="L95" t="s">
+        <v>693</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>694</v>
+      </c>
+      <c r="O95" t="s">
+        <v>72</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>686</v>
+      </c>
+      <c r="X95" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>696</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>697</v>
+      </c>
+      <c r="J96" t="s">
+        <v>698</v>
+      </c>
+      <c r="K96" t="s">
+        <v>699</v>
+      </c>
+      <c r="L96" t="s">
+        <v>700</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>685</v>
+      </c>
+      <c r="O96" t="s">
+        <v>137</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>701</v>
+      </c>
+      <c r="X96" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>704</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>705</v>
+      </c>
+      <c r="J97" t="s">
+        <v>706</v>
+      </c>
+      <c r="K97" t="s">
+        <v>707</v>
+      </c>
+      <c r="L97" t="s">
+        <v>708</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>685</v>
+      </c>
+      <c r="O97" t="s">
+        <v>72</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>709</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>710</v>
+      </c>
+      <c r="J98" t="s">
+        <v>711</v>
+      </c>
+      <c r="K98" t="s">
+        <v>712</v>
+      </c>
+      <c r="L98" t="s">
+        <v>713</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>714</v>
+      </c>
+      <c r="O98" t="s">
+        <v>137</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>716</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>717</v>
+      </c>
+      <c r="J99" t="s">
+        <v>718</v>
+      </c>
+      <c r="K99" t="s">
+        <v>719</v>
+      </c>
+      <c r="L99" t="s">
+        <v>720</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>721</v>
+      </c>
+      <c r="O99" t="s">
+        <v>137</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>723</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>724</v>
+      </c>
+      <c r="J100" t="s">
+        <v>725</v>
+      </c>
+      <c r="K100" t="s">
+        <v>726</v>
+      </c>
+      <c r="L100" t="s">
+        <v>727</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>728</v>
+      </c>
+      <c r="O100" t="s">
+        <v>137</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>729</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>730</v>
+      </c>
+      <c r="J101" t="s">
+        <v>731</v>
+      </c>
+      <c r="K101" t="s">
+        <v>732</v>
+      </c>
+      <c r="L101" t="s">
+        <v>733</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>721</v>
+      </c>
+      <c r="O101" t="s">
+        <v>137</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>734</v>
+      </c>
+      <c r="X101" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>737</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>738</v>
+      </c>
+      <c r="J102" t="s">
+        <v>731</v>
+      </c>
+      <c r="K102" t="s">
+        <v>739</v>
+      </c>
+      <c r="L102" t="s">
+        <v>740</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>721</v>
+      </c>
+      <c r="O102" t="s">
+        <v>137</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>734</v>
+      </c>
+      <c r="X102" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>742</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>743</v>
+      </c>
+      <c r="J103" t="s">
+        <v>744</v>
+      </c>
+      <c r="K103" t="s">
+        <v>745</v>
+      </c>
+      <c r="L103" t="s">
+        <v>746</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>747</v>
+      </c>
+      <c r="O103" t="s">
+        <v>146</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>748</v>
+      </c>
+      <c r="X103" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>751</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>752</v>
+      </c>
+      <c r="J104" t="s">
+        <v>753</v>
+      </c>
+      <c r="K104" t="s">
+        <v>754</v>
+      </c>
+      <c r="L104" t="s">
+        <v>755</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>756</v>
+      </c>
+      <c r="O104" t="s">
+        <v>137</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>757</v>
+      </c>
+      <c r="X104" t="s">
+        <v>758</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>760</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>761</v>
+      </c>
+      <c r="J105" t="s">
+        <v>762</v>
+      </c>
+      <c r="K105" t="s">
+        <v>763</v>
+      </c>
+      <c r="L105" t="s">
+        <v>764</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>765</v>
+      </c>
+      <c r="O105" t="s">
+        <v>146</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>766</v>
+      </c>
+      <c r="X105" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>769</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>770</v>
+      </c>
+      <c r="J106" t="s">
+        <v>771</v>
+      </c>
+      <c r="K106" t="s">
+        <v>772</v>
+      </c>
+      <c r="L106" t="s">
+        <v>773</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>774</v>
+      </c>
+      <c r="X106" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>777</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>778</v>
+      </c>
+      <c r="J107" t="s">
+        <v>779</v>
+      </c>
+      <c r="K107" t="s">
+        <v>780</v>
+      </c>
+      <c r="L107" t="s">
+        <v>781</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>782</v>
+      </c>
+      <c r="O107" t="s">
+        <v>137</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>774</v>
+      </c>
+      <c r="X107" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>784</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>785</v>
+      </c>
+      <c r="J108" t="s">
+        <v>786</v>
+      </c>
+      <c r="K108" t="s">
+        <v>787</v>
+      </c>
+      <c r="L108" t="s">
+        <v>788</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>789</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>774</v>
+      </c>
+      <c r="X108" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>791</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>792</v>
+      </c>
+      <c r="J109" t="s">
+        <v>793</v>
+      </c>
+      <c r="K109" t="s">
+        <v>794</v>
+      </c>
+      <c r="L109" t="s">
+        <v>795</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>796</v>
+      </c>
+      <c r="O109" t="s">
+        <v>104</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>797</v>
+      </c>
+      <c r="X109" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>799</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>800</v>
+      </c>
+      <c r="J110" t="s">
+        <v>801</v>
+      </c>
+      <c r="K110" t="s">
+        <v>802</v>
+      </c>
+      <c r="L110" t="s">
+        <v>803</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>804</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>774</v>
+      </c>
+      <c r="X110" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>806</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>807</v>
+      </c>
+      <c r="J111" t="s">
+        <v>801</v>
+      </c>
+      <c r="K111" t="s">
+        <v>808</v>
+      </c>
+      <c r="L111" t="s">
+        <v>809</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>796</v>
+      </c>
+      <c r="O111" t="s">
+        <v>53</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>774</v>
+      </c>
+      <c r="X111" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>811</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>812</v>
+      </c>
+      <c r="J112" t="s">
+        <v>813</v>
+      </c>
+      <c r="K112" t="s">
+        <v>814</v>
+      </c>
+      <c r="L112" t="s">
+        <v>815</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>804</v>
+      </c>
+      <c r="O112" t="s">
+        <v>72</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>774</v>
+      </c>
+      <c r="X112" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>817</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>818</v>
+      </c>
+      <c r="J113" t="s">
+        <v>819</v>
+      </c>
+      <c r="K113" t="s">
+        <v>820</v>
+      </c>
+      <c r="L113" t="s">
+        <v>821</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="s">
+        <v>822</v>
+      </c>
+      <c r="O113" t="s">
+        <v>137</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>2</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>774</v>
+      </c>
+      <c r="X113" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>824</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>825</v>
+      </c>
+      <c r="J114" t="s">
+        <v>826</v>
+      </c>
+      <c r="K114" t="s">
+        <v>827</v>
+      </c>
+      <c r="L114" t="s">
+        <v>828</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>829</v>
+      </c>
+      <c r="O114" t="s">
+        <v>53</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>830</v>
+      </c>
+      <c r="X114" t="s">
+        <v>831</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>833</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>834</v>
+      </c>
+      <c r="J115" t="s">
+        <v>835</v>
+      </c>
+      <c r="K115" t="s">
+        <v>836</v>
+      </c>
+      <c r="L115" t="s">
+        <v>837</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>838</v>
+      </c>
+      <c r="O115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>774</v>
+      </c>
+      <c r="X115" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>840</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>841</v>
+      </c>
+      <c r="J116" t="s">
+        <v>842</v>
+      </c>
+      <c r="K116" t="s">
+        <v>843</v>
+      </c>
+      <c r="L116" t="s">
+        <v>844</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+      <c r="N116" t="s">
+        <v>845</v>
+      </c>
+      <c r="O116" t="s">
+        <v>137</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>4</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s">
+        <v>830</v>
+      </c>
+      <c r="X116" t="s">
+        <v>831</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>847</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>848</v>
+      </c>
+      <c r="J117" t="s">
+        <v>849</v>
+      </c>
+      <c r="K117" t="s">
+        <v>850</v>
+      </c>
+      <c r="L117" t="s">
+        <v>851</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>852</v>
+      </c>
+      <c r="O117" t="s">
+        <v>53</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s">
+        <v>774</v>
+      </c>
+      <c r="X117" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>854</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>855</v>
+      </c>
+      <c r="J118" t="s">
+        <v>856</v>
+      </c>
+      <c r="K118" t="s">
+        <v>857</v>
+      </c>
+      <c r="L118" t="s">
+        <v>858</v>
+      </c>
+      <c r="M118" t="n">
+        <v>5</v>
+      </c>
+      <c r="N118" t="s"/>
+      <c r="O118" t="s"/>
+      <c r="P118" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s">
+        <v>774</v>
+      </c>
+      <c r="X118" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>860</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>861</v>
+      </c>
+      <c r="J119" t="s">
+        <v>862</v>
+      </c>
+      <c r="K119" t="s">
+        <v>863</v>
+      </c>
+      <c r="L119" t="s">
+        <v>864</v>
+      </c>
+      <c r="M119" t="n">
+        <v>5</v>
+      </c>
+      <c r="N119" t="s">
+        <v>865</v>
+      </c>
+      <c r="O119" t="s">
+        <v>53</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q119" t="s"/>
+      <c r="R119" t="s"/>
+      <c r="S119" t="n">
+        <v>5</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s">
+        <v>774</v>
+      </c>
+      <c r="X119" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>867</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>868</v>
+      </c>
+      <c r="J120" t="s">
+        <v>869</v>
+      </c>
+      <c r="K120" t="s">
+        <v>870</v>
+      </c>
+      <c r="L120" t="s">
+        <v>871</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5</v>
+      </c>
+      <c r="N120" t="s">
+        <v>872</v>
+      </c>
+      <c r="O120" t="s">
+        <v>53</v>
+      </c>
+      <c r="P120" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>4</v>
+      </c>
+      <c r="R120" t="n">
+        <v>5</v>
+      </c>
+      <c r="S120" t="n">
+        <v>4</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>4</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s">
+        <v>774</v>
+      </c>
+      <c r="X120" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>874</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>875</v>
+      </c>
+      <c r="J121" t="s">
+        <v>876</v>
+      </c>
+      <c r="K121" t="s">
+        <v>877</v>
+      </c>
+      <c r="L121" t="s">
+        <v>878</v>
+      </c>
+      <c r="M121" t="n">
+        <v>3</v>
+      </c>
+      <c r="N121" t="s">
+        <v>879</v>
+      </c>
+      <c r="O121" t="s">
+        <v>137</v>
+      </c>
+      <c r="P121" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>3</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2</v>
+      </c>
+      <c r="S121" t="n">
+        <v>4</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="n">
+        <v>4</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s">
+        <v>774</v>
+      </c>
+      <c r="X121" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>881</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>882</v>
+      </c>
+      <c r="J122" t="s">
+        <v>883</v>
+      </c>
+      <c r="K122" t="s">
+        <v>884</v>
+      </c>
+      <c r="L122" t="s">
+        <v>885</v>
+      </c>
+      <c r="M122" t="n">
+        <v>3</v>
+      </c>
+      <c r="N122" t="s"/>
+      <c r="O122" t="s"/>
+      <c r="P122" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>3</v>
+      </c>
+      <c r="R122" t="n">
+        <v>3</v>
+      </c>
+      <c r="S122" t="n">
+        <v>4</v>
+      </c>
+      <c r="T122" t="s"/>
+      <c r="U122" t="n">
+        <v>3</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s">
+        <v>774</v>
+      </c>
+      <c r="X122" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>59961</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>887</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>888</v>
+      </c>
+      <c r="J123" t="s">
+        <v>889</v>
+      </c>
+      <c r="K123" t="s">
+        <v>890</v>
+      </c>
+      <c r="L123" t="s">
+        <v>891</v>
+      </c>
+      <c r="M123" t="n">
+        <v>3</v>
+      </c>
+      <c r="N123" t="s">
+        <v>892</v>
+      </c>
+      <c r="O123" t="s">
+        <v>137</v>
+      </c>
+      <c r="P123" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>3</v>
+      </c>
+      <c r="S123" t="n">
+        <v>5</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>4</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s">
+        <v>774</v>
+      </c>
+      <c r="X123" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>893</v>
       </c>
     </row>
   </sheetData>
